--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\Senior design flashdrive 10_10_2018\Senior design project\Milestone Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D3EB9-673F-4F7F-80EF-96B76EA836CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6D8A8-4D37-41F1-8903-258FCB098BF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prep and do initial design review </t>
+  </si>
+  <si>
+    <t>Data/Signal Flow chart</t>
+  </si>
+  <si>
+    <t>IDR Power Point</t>
   </si>
 </sst>
 </file>
@@ -879,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I84"/>
+  <dimension ref="B1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37:P38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +911,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
-        <v>43383</v>
+        <v>43390</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -913,8 +919,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
-        <f>F56 - B2</f>
-        <v>58</v>
+        <f>F58 - B2</f>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -969,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D66" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D68" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="12">
@@ -1138,13 +1144,13 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="12">
         <v>43355</v>
       </c>
       <c r="F14" s="12">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1152,20 +1158,20 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E15" s="12">
         <v>43355</v>
       </c>
       <c r="F15" s="12">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1173,23 +1179,23 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12">
         <v>43355</v>
       </c>
       <c r="F16" s="12">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1197,14 +1203,14 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12">
-        <v>43374</v>
+        <v>43355</v>
       </c>
       <c r="F17" s="12">
         <v>43388</v>
@@ -1218,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1239,7 +1245,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1257,10 +1263,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1281,7 +1287,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1299,10 +1305,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -1323,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1341,10 +1347,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1362,10 +1368,10 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1386,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -1425,10 +1431,10 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1449,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1467,10 +1473,10 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1488,10 +1494,10 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1509,10 +1515,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1533,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -1554,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -1572,10 +1578,10 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -1614,10 +1620,10 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -1630,22 +1636,22 @@
         <v>43388</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E38" s="12">
-        <v>43383</v>
+        <v>43374</v>
       </c>
       <c r="F38" s="12">
         <v>43388</v>
@@ -1656,10 +1662,14 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E39" s="12">
         <v>43383</v>
@@ -1668,28 +1678,25 @@
         <v>43388</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E40" s="12">
         <v>43383</v>
       </c>
       <c r="F40" s="12">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -1697,14 +1704,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E41" s="12">
         <v>43383</v>
@@ -1715,47 +1718,50 @@
       <c r="G41" t="s">
         <v>12</v>
       </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E42" s="12">
-        <v>43388</v>
+        <v>43383</v>
       </c>
       <c r="F42" s="12">
-        <v>43423</v>
+        <v>43388</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E43" s="12">
-        <v>43388</v>
+        <v>43383</v>
       </c>
       <c r="F43" s="12">
-        <v>43402</v>
+        <v>43388</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1763,55 +1769,59 @@
         <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E44" s="12">
+        <v>43388</v>
+      </c>
+      <c r="F44" s="12">
+        <v>43423</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="12">
+        <v>43388</v>
+      </c>
+      <c r="F45" s="12">
+        <v>43402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>21</v>
-      </c>
-      <c r="E44" s="12">
-        <v>43409</v>
-      </c>
-      <c r="F44" s="12">
-        <v>43430</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E45" s="12">
-        <v>43409</v>
-      </c>
-      <c r="F45" s="12">
-        <v>43423</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="E46" s="12">
         <v>43409</v>
       </c>
       <c r="F46" s="12">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -1820,38 +1830,36 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E47" s="12">
         <v>43409</v>
       </c>
       <c r="F47" s="12">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E48" s="12">
+        <v>43409</v>
+      </c>
+      <c r="F48" s="12">
         <v>43423</v>
-      </c>
-      <c r="F48" s="12">
-        <v>43434</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -1860,109 +1868,113 @@
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E49" s="12">
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="F49" s="12">
-        <v>43436</v>
+        <v>43430</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+      <c r="B50" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E50" s="12">
         <v>43423</v>
       </c>
       <c r="F50" s="12">
+        <v>43434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="12">
+        <v>43423</v>
+      </c>
+      <c r="F51" s="12">
+        <v>43436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E52" s="12">
+        <v>43423</v>
+      </c>
+      <c r="F52" s="12">
         <v>43430</v>
       </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="14" t="s">
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E53" s="12">
         <v>43425</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F53" s="12">
         <v>43429</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+      <c r="G53" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D52">
-        <f t="shared" ref="D52" si="1">F52-E52</f>
+      <c r="D54">
+        <f t="shared" ref="D54" si="1">F54-E54</f>
         <v>9</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E54" s="12">
         <v>43430</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F54" s="12">
         <v>43439</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E53" s="12">
-        <v>43430</v>
-      </c>
-      <c r="F53" s="12">
-        <v>43439</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E54" s="12">
-        <v>43416</v>
-      </c>
-      <c r="F54" s="12">
-        <v>43432</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -1970,10 +1982,10 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55" si="2">F55-E55</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E55" s="12">
@@ -1988,17 +2000,17 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E56" s="12">
-        <v>43441</v>
+        <v>43416</v>
       </c>
       <c r="F56" s="12">
-        <v>43441</v>
+        <v>43432</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2006,35 +2018,35 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D57" si="2">F57-E57</f>
+        <v>9</v>
       </c>
       <c r="E57" s="12">
+        <v>43430</v>
+      </c>
+      <c r="F57" s="12">
         <v>43439</v>
       </c>
-      <c r="F57" s="12">
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="12">
         <v>43441</v>
       </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E58" s="12">
-        <v>43487</v>
-      </c>
       <c r="F58" s="12">
-        <v>43515</v>
+        <v>43441</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2042,17 +2054,17 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E59" s="12">
-        <v>43487</v>
+        <v>43439</v>
       </c>
       <c r="F59" s="12">
-        <v>43528</v>
+        <v>43441</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2060,17 +2072,17 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E60" s="12">
         <v>43487</v>
       </c>
       <c r="F60" s="12">
-        <v>43528</v>
+        <v>43515</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -2078,17 +2090,17 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E61" s="12">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F61" s="12">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -2096,17 +2108,17 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E62" s="12">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F62" s="12">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
@@ -2114,17 +2126,17 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E63" s="12">
+        <v>43515</v>
+      </c>
+      <c r="F63" s="12">
         <v>43536</v>
-      </c>
-      <c r="F63" s="12">
-        <v>43564</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -2132,52 +2144,64 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E64" s="12">
+        <v>43515</v>
+      </c>
+      <c r="F64" s="12">
+        <v>43536</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E65" s="12">
+        <v>43536</v>
+      </c>
+      <c r="F65" s="12">
+        <v>43564</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E66" s="12">
         <v>43564</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F66" s="12">
         <v>43591</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="D67">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E67" s="12"/>
@@ -2186,62 +2210,86 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="17">
-        <f>COUNTIFS(B5:B73, "James Bell", G5:G73, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="17">
+        <f>COUNTIFS(B5:B75, "James Bell", G5:G75, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="17">
-        <f>COUNTIFS(B6:B74, "Samuel Hussey", G5:G73, "In progress")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="C83" s="17">
+        <f>COUNTIFS(B6:B76, "Samuel Hussey", G5:G75, "In progress")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="17">
-        <f>COUNTIFS(B7:B75, "Zachary Schneiderman", G5:G73, "In progress")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
+      <c r="C84" s="17">
+        <f>COUNTIFS(B7:B77, "Zachary Schneiderman", G5:G75, "In progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="17">
-        <f>COUNTIFS(B5:B73, "James Bell (Team)", G5:G73, "In progress")</f>
+      <c r="C85" s="17">
+        <f>COUNTIFS(B5:B75, "James Bell (Team)", G5:G75, "In progress")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
   </mergeCells>
-  <conditionalFormatting sqref="A81:XFD83 A79:D80 F79:XFD80 A85:XFD1048576 A84 C84:XFD84 A1:XFD78">
+  <conditionalFormatting sqref="A83:XFD85 A81:D82 F81:XFD82 A87:XFD1048576 A86 C86:XFD86 A1:XFD80">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -2270,7 +2318,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G67</xm:sqref>
+          <xm:sqref>G5:G69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6D8A8-4D37-41F1-8903-258FCB098BF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD1B5B7-EBA5-4E25-812F-50F930BDABDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G69"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD1B5B7-EBA5-4E25-812F-50F930BDABDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="Status" localSheetId="1">Fields!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="86">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -343,9 +342,6 @@
     <t>"Team" tasks (To do in adhoc meetings</t>
   </si>
   <si>
-    <t>Power Amp Simulation</t>
-  </si>
-  <si>
     <t>Bandpass Filter Simulation</t>
   </si>
   <si>
@@ -358,9 +354,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Soft deadline? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prep and do initial design review </t>
   </si>
   <si>
@@ -368,12 +361,24 @@
   </si>
   <si>
     <t>IDR Power Point</t>
+  </si>
+  <si>
+    <t>Speaker Amplifier</t>
+  </si>
+  <si>
+    <t>Order Parts</t>
+  </si>
+  <si>
+    <t>All Siumulations Completed for analog components we are constructing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandpass Filter and Radio Frequeny Amplifier built </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +514,182 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -640,23 +820,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -692,23 +855,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,32 +1030,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
     <col min="5" max="6" width="12" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>43390</v>
       </c>
@@ -917,16 +1063,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <f>F58 - B2</f>
+        <f>F61 - B2</f>
         <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -946,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
@@ -967,7 +1113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D68" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D71" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="12">
@@ -988,7 +1134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1156,12 +1302,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1177,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
@@ -1198,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>71</v>
       </c>
@@ -1534,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
@@ -1639,7 +1785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1660,12 +1806,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -1681,12 +1827,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -1699,15 +1845,15 @@
         <v>43395</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="12">
         <v>43383</v>
@@ -1716,18 +1862,15 @@
         <v>43388</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -1740,15 +1883,15 @@
         <v>43388</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -1761,10 +1904,10 @@
         <v>43388</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1782,15 +1925,15 @@
         <v>43423</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -1803,72 +1946,78 @@
         <v>43402</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E46" s="12">
+        <v>43397</v>
+      </c>
+      <c r="F46" s="12">
+        <v>43401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E47" s="12">
+        <v>43397</v>
+      </c>
+      <c r="F47" s="12">
+        <v>43405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E48" s="12">
+        <v>43397</v>
+      </c>
+      <c r="F48" s="12">
+        <v>43405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E46" s="12">
-        <v>43409</v>
-      </c>
-      <c r="F46" s="12">
-        <v>43430</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E47" s="12">
-        <v>43409</v>
-      </c>
-      <c r="F47" s="12">
-        <v>43423</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E48" s="12">
-        <v>43409</v>
-      </c>
-      <c r="F48" s="12">
-        <v>43423</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -1884,57 +2033,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>24</v>
-      </c>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="9"/>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E50" s="12">
+        <v>43409</v>
+      </c>
+      <c r="F50" s="12">
         <v>43423</v>
-      </c>
-      <c r="F50" s="12">
-        <v>43434</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" s="12">
+        <v>43409</v>
+      </c>
+      <c r="F51" s="12">
         <v>43423</v>
-      </c>
-      <c r="F51" s="12">
-        <v>43436</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E52" s="12">
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="F52" s="12">
         <v>43430</v>
@@ -1943,85 +2090,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E53" s="12">
-        <v>43425</v>
+        <v>43423</v>
       </c>
       <c r="F53" s="12">
-        <v>43429</v>
-      </c>
-      <c r="G53" s="10" t="s">
+        <v>43434</v>
+      </c>
+      <c r="G53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54" si="1">F54-E54</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E54" s="12">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F54" s="12">
-        <v>43439</v>
+        <v>43436</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" s="12">
+        <v>43423</v>
+      </c>
+      <c r="F55" s="12">
         <v>43430</v>
-      </c>
-      <c r="F55" s="12">
-        <v>43439</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>16</v>
+    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E56" s="12">
-        <v>43416</v>
+        <v>43425</v>
       </c>
       <c r="F56" s="12">
-        <v>43432</v>
-      </c>
-      <c r="G56" t="s">
+        <v>43429</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" si="2">F57-E57</f>
+        <f t="shared" ref="D57" si="1">F57-E57</f>
         <v>9</v>
       </c>
       <c r="E57" s="12">
@@ -2034,277 +2186,331 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
-        <v>0</v>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E58" s="12">
-        <v>43441</v>
+        <v>43430</v>
       </c>
       <c r="F58" s="12">
-        <v>43441</v>
+        <v>43439</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
-        <v>42</v>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E59" s="12">
-        <v>43439</v>
+        <v>43416</v>
       </c>
       <c r="F59" s="12">
-        <v>43441</v>
+        <v>43432</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" ref="D60" si="2">F60-E60</f>
+        <v>9</v>
       </c>
       <c r="E60" s="12">
-        <v>43487</v>
+        <v>43430</v>
       </c>
       <c r="F60" s="12">
-        <v>43515</v>
+        <v>43439</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>44</v>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E61" s="12">
-        <v>43487</v>
+        <v>43441</v>
       </c>
       <c r="F61" s="12">
-        <v>43528</v>
+        <v>43441</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E62" s="12">
-        <v>43487</v>
+        <v>43439</v>
       </c>
       <c r="F62" s="12">
-        <v>43528</v>
+        <v>43441</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E63" s="12">
+        <v>43487</v>
+      </c>
+      <c r="F63" s="12">
         <v>43515</v>
-      </c>
-      <c r="F63" s="12">
-        <v>43536</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E64" s="12">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F64" s="12">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E65" s="12">
-        <v>43536</v>
+        <v>43487</v>
       </c>
       <c r="F65" s="12">
-        <v>43564</v>
+        <v>43528</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E66" s="12">
-        <v>43564</v>
+        <v>43515</v>
       </c>
       <c r="F66" s="12">
-        <v>43591</v>
+        <v>43536</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>8</v>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="E67" s="12">
+        <v>43515</v>
+      </c>
+      <c r="F67" s="12">
+        <v>43536</v>
+      </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>5</v>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="E68" s="12">
+        <v>43536</v>
+      </c>
+      <c r="F68" s="12">
+        <v>43564</v>
+      </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E69" s="12">
+        <v>43564</v>
+      </c>
+      <c r="F69" s="12">
+        <v>43591</v>
+      </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="17">
-        <f>COUNTIFS(B5:B75, "James Bell", G5:G75, "In progress")</f>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="17">
+        <f>COUNTIFS(B5:B78, "James Bell", G5:G78, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="17">
+        <f>COUNTIFS(B6:B79, "Samuel Hussey", G5:G78, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="17">
-        <f>COUNTIFS(B6:B76, "Samuel Hussey", G5:G75, "In progress")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C84" s="17">
-        <f>COUNTIFS(B7:B77, "Zachary Schneiderman", G5:G75, "In progress")</f>
+      <c r="C87" s="17">
+        <f>COUNTIFS(B7:B80, "Zachary Schneiderman", G5:G78, "In progress")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="17">
+        <f>COUNTIFS(B5:B78, "James Bell (Team)", G5:G78, "In progress")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="17">
-        <f>COUNTIFS(B5:B75, "James Bell (Team)", G5:G75, "In progress")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="19"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
   </mergeCells>
-  <conditionalFormatting sqref="A83:XFD85 A81:D82 F81:XFD82 A87:XFD1048576 A86 C86:XFD86 A1:XFD80">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+  <conditionalFormatting sqref="A86:XFD88 A84:D85 F84:XFD85 A90:XFD1048576 A89 C89:XFD89 A1:XFD83">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="2" priority="5" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="12" priority="5" operator="endsWith" text="Not Started">
       <formula>RIGHT(A1,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="1" priority="6" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="11" priority="6" operator="endsWith" text="In progress">
       <formula>RIGHT(A1,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="0" priority="7" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="10" priority="7" operator="endsWith" text="Finished">
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2314,11 +2520,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A39210-D7B7-4AF2-979B-E3CB8F286CE0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G69</xm:sqref>
+          <xm:sqref>G5:G72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2327,49 +2533,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DEFE09-05B1-4875-8D31-8FAA87CBAD46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45806290-6AEE-4EFD-A31E-01E20A38C6B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Labor Cost Schedule</t>
-  </si>
-  <si>
     <t>Poster Draft</t>
   </si>
   <si>
@@ -374,6 +371,36 @@
   </si>
   <si>
     <t xml:space="preserve">Bandpass Filter and Radio Frequeny Amplifier built </t>
+  </si>
+  <si>
+    <t>Total Task Overdue</t>
+  </si>
+  <si>
+    <t>Total Tasks Finished</t>
+  </si>
+  <si>
+    <t>Total Tasks Not started</t>
+  </si>
+  <si>
+    <t>Total Tasks Critical</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 1</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 2</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 3</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 4</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 5</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule Section 6</t>
   </si>
 </sst>
 </file>
@@ -464,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -505,14 +532,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="261">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -523,7 +573,1771 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -902,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I89"/>
+  <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,21 +2734,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43404</v>
+        <v>43408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -942,8 +2756,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F61 - B2</f>
-        <v>37</v>
+        <f>F66 - B2</f>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -998,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D71" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D76" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="9">
@@ -1180,11 +2994,11 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>24</v>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -1218,7 +3032,7 @@
         <v>43395</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1247,7 +3061,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -1268,7 +3082,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -1289,7 +3103,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -1310,7 +3124,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -1331,7 +3145,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1352,7 +3166,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -1373,7 +3187,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -1394,7 +3208,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -1415,7 +3229,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -1436,7 +3250,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -1457,7 +3271,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -1478,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -1499,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -1520,7 +3334,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -1538,10 +3352,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -1562,7 +3376,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -1583,7 +3397,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -1604,7 +3418,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -1625,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -1643,10 +3457,10 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -1667,7 +3481,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -1688,7 +3502,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -1709,7 +3523,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -1730,7 +3544,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="9">
         <v>43383</v>
@@ -1747,7 +3561,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -1768,7 +3582,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -1789,14 +3603,14 @@
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E44" s="9">
-        <v>43388</v>
+        <v>43408</v>
       </c>
       <c r="F44" s="9">
         <v>43423</v>
@@ -1805,203 +3619,211 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="1">
+        <v>90</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E45" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F45" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E46" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F46" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E47" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F47" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E48" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F48" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F49" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E50" s="9">
         <v>43388</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F50" s="9">
         <v>43402</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G50" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F51" s="9">
+        <v>43401</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E52" s="9">
         <v>43397</v>
       </c>
-      <c r="F46" s="9">
-        <v>43401</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="F52" s="9">
+        <v>43405</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E47" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F47" s="9">
-        <v>43405</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E48" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F48" s="9">
-        <v>43405</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E49" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F49" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E50" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F50" s="9">
-        <v>43423</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E51" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F51" s="9">
-        <v>43423</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E52" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F52" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E53" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F53" s="9">
+        <v>43411</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E53" s="9">
-        <v>43423</v>
-      </c>
-      <c r="F53" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E54" s="9">
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="F54" s="9">
-        <v>43436</v>
+        <v>43430</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -2010,143 +3832,150 @@
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E55" s="9">
+        <v>43409</v>
+      </c>
+      <c r="F55" s="9">
         <v>43423</v>
-      </c>
-      <c r="F55" s="9">
-        <v>43430</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E56" s="9">
-        <v>43425</v>
+        <v>43409</v>
       </c>
       <c r="F56" s="9">
-        <v>43429</v>
-      </c>
-      <c r="G56" s="7" t="s">
+        <v>43423</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
       <c r="C57" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57" si="1">F57-E57</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E57" s="9">
+        <v>43409</v>
+      </c>
+      <c r="F57" s="9">
         <v>43430</v>
-      </c>
-      <c r="F57" s="9">
-        <v>43439</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C58" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58" s="9">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F58" s="9">
-        <v>43439</v>
+        <v>43434</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
       <c r="C59" s="6" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E59" s="9">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="F59" s="9">
-        <v>43432</v>
+        <v>43436</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
       <c r="C60" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60" si="2">F60-E60</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E60" s="9">
+        <v>43423</v>
+      </c>
+      <c r="F60" s="9">
         <v>43430</v>
-      </c>
-      <c r="F60" s="9">
-        <v>43439</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="61" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E61" s="9">
-        <v>43441</v>
+        <v>43425</v>
       </c>
       <c r="F61" s="9">
-        <v>43441</v>
-      </c>
-      <c r="G61" s="1" t="s">
+        <v>43429</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D62" si="1">F62-E62</f>
+        <v>9</v>
       </c>
       <c r="E62" s="9">
+        <v>43430</v>
+      </c>
+      <c r="F62" s="9">
         <v>43439</v>
-      </c>
-      <c r="F62" s="9">
-        <v>43441</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -2154,17 +3983,17 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E63" s="9">
-        <v>43487</v>
+        <v>43430</v>
       </c>
       <c r="F63" s="9">
-        <v>43515</v>
+        <v>43439</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -2172,17 +4001,17 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E64" s="9">
-        <v>43487</v>
+        <v>43416</v>
       </c>
       <c r="F64" s="9">
-        <v>43528</v>
+        <v>43432</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -2190,17 +4019,17 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f t="shared" ref="D65" si="2">F65-E65</f>
+        <v>9</v>
       </c>
       <c r="E65" s="9">
-        <v>43487</v>
+        <v>43430</v>
       </c>
       <c r="F65" s="9">
-        <v>43528</v>
+        <v>43439</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -2208,17 +4037,17 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E66" s="9">
-        <v>43515</v>
+        <v>43441</v>
       </c>
       <c r="F66" s="9">
-        <v>43536</v>
+        <v>43441</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -2226,17 +4055,17 @@
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E67" s="9">
-        <v>43515</v>
+        <v>43439</v>
       </c>
       <c r="F67" s="9">
-        <v>43536</v>
+        <v>43441</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -2244,17 +4073,17 @@
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E68" s="9">
-        <v>43536</v>
+        <v>43487</v>
       </c>
       <c r="F68" s="9">
-        <v>43564</v>
+        <v>43515</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -2262,142 +4091,447 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E69" s="9">
-        <v>43564</v>
+        <v>43487</v>
       </c>
       <c r="F69" s="9">
-        <v>43591</v>
+        <v>43528</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
-        <v>8</v>
+      <c r="C70" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E70" s="9">
+        <v>43487</v>
+      </c>
+      <c r="F70" s="9">
+        <v>43528</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>5</v>
+      <c r="C71" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="E71" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F71" s="9">
+        <v>43536</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="C72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E72" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F72" s="9">
+        <v>43536</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="C73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E73" s="9">
+        <v>43536</v>
+      </c>
+      <c r="F73" s="9">
+        <v>43564</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E74" s="9">
+        <v>43564</v>
+      </c>
+      <c r="F74" s="9">
+        <v>43591</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D89" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="17">
+        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D90" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Finished")</f>
+        <v>16</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Not Started")</f>
+        <v>2</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="17">
+        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "In progress")</f>
+        <v>1</v>
+      </c>
+      <c r="D91" s="16">
+        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Overdue")</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16">
+        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Finished")</f>
+        <v>13</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16">
+        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16">
+        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="17">
+        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D92" s="16">
+        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16">
+        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Finished")</f>
+        <v>10</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16">
+        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16">
+        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+    </row>
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="1">
-        <f>COUNTIFS(B5:B78, "James Bell", G5:G78, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="1">
-        <f>COUNTIFS(B6:B79, "Samuel Hussey", G5:G78, "In progress")</f>
+      <c r="C93" s="17">
+        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "In progress")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="1">
-        <f>COUNTIFS(B7:B80, "Zachary Schneiderman", G5:G78, "In progress")</f>
+      <c r="D93" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Overdue")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="1">
-        <f>COUNTIFS(B5:B78, "James Bell (Team)", G5:G78, "In progress")</f>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Finished")</f>
+        <v>2</v>
+      </c>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Not Started")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16">
+        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B88:B89"/>
+  <mergeCells count="22">
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="B93:B94"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:K93"/>
   </mergeCells>
-  <conditionalFormatting sqref="A86:XFD88 A84:D85 F84:XFD85 A90:XFD1048576 A89 C89:XFD89 A2:XFD83 A1:B1 H1:XFD1">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+  <conditionalFormatting sqref="A95:XFD1048576 A94 C94:XFD94 A1:B1 H1:XFD1 G89 I89 L89 O89:XFD93 A89:D93 A2:XFD88">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="4" priority="7" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="26" priority="32" operator="endsWith" text="Not Started">
       <formula>RIGHT(A1,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="3" priority="8" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="25" priority="33" stopIfTrue="1" operator="endsWith" text="In progress">
       <formula>RIGHT(A1,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="2" priority="9" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="24" priority="34" operator="endsWith" text="Finished">
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:XFD1048576 A1:B1 H1:XFD1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Critical">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G89 I89 L89 A94:XFD1048576 O89:XFD93 A89:D93 A2:XFD88">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G93">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text="Not Started">
+      <formula>RIGHT(G90,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="18" priority="24" operator="endsWith" text="In progress">
+      <formula>RIGHT(G90,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="17" priority="25" operator="endsWith" text="Finished">
+      <formula>RIGHT(G90,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G93">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",G90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:I93">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="Not Started">
+      <formula>RIGHT(I90,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="In progress">
+      <formula>RIGHT(I90,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="10" priority="18" operator="endsWith" text="Finished">
+      <formula>RIGHT(I90,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:I93">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",I90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",I90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L90:L93">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="5" priority="9" operator="endsWith" text="Not Started">
+      <formula>RIGHT(L90,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="4" priority="10" operator="endsWith" text="In progress">
+      <formula>RIGHT(L90,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="3" priority="11" operator="endsWith" text="Finished">
+      <formula>RIGHT(L90,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L90:L93">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",L90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",L90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G1="In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2410,7 +4544,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G72</xm:sqref>
+          <xm:sqref>G5:G77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45806290-6AEE-4EFD-A31E-01E20A38C6B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118621A-CC9F-406B-AED8-2A2D4A5248C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Transmitting/Tune tests</t>
   </si>
   <si>
-    <t>Final Preparations for Senior design day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add licensing selection to radio </t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>Labor Cost Schedule Section 6</t>
+  </si>
+  <si>
+    <t>Compile Senior design day notebook</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -535,1648 +535,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="261">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2718,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,21 +1113,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43408</v>
+        <v>43411</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2756,8 +1135,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F66 - B2</f>
-        <v>33</v>
+        <f>F67 - B2</f>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2998,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -3061,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -3082,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -3103,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -3124,7 +1503,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -3145,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -3166,7 +1545,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -3187,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -3208,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -3229,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -3250,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -3271,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -3292,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -3313,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3334,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3352,10 +1731,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3376,7 +1755,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3397,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3418,7 +1797,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3439,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -3457,10 +1836,10 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -3481,7 +1860,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -3502,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -3523,7 +1902,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -3544,7 +1923,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="9">
         <v>43383</v>
@@ -3561,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -3582,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -3603,7 +1982,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -3624,7 +2003,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
@@ -3645,7 +2024,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="13">
         <f t="shared" si="0"/>
@@ -3666,7 +2045,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
@@ -3687,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
@@ -3708,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
@@ -3729,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
@@ -3750,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
@@ -3771,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
@@ -3792,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
@@ -3808,50 +2187,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E54" s="9">
+        <v>43411</v>
+      </c>
+      <c r="F54" s="9">
+        <v>43441</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
-      </c>
-      <c r="E54" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F54" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="E55" s="9">
         <v>43409</v>
       </c>
       <c r="F55" s="9">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
@@ -3870,57 +2251,57 @@
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E57" s="9">
         <v>43409</v>
       </c>
       <c r="F57" s="9">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B58" s="12"/>
       <c r="C58" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E58" s="9">
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="F58" s="9">
-        <v>43434</v>
+        <v>43430</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C59" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59" s="9">
         <v>43423</v>
       </c>
       <c r="F59" s="9">
-        <v>43436</v>
+        <v>43434</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -3929,55 +2310,56 @@
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
       <c r="C60" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E60" s="9">
         <v>43423</v>
       </c>
       <c r="F60" s="9">
-        <v>43430</v>
+        <v>43436</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="10" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D61" s="11">
+      <c r="E61" s="9">
+        <v>43423</v>
+      </c>
+      <c r="F61" s="9">
+        <v>43430</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>43425</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>43429</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" ref="D62" si="1">F62-E62</f>
-        <v>9</v>
-      </c>
-      <c r="E62" s="9">
-        <v>43430</v>
-      </c>
-      <c r="F62" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3986,7 +2368,7 @@
         <v>39</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D63" si="1">F63-E63</f>
         <v>9</v>
       </c>
       <c r="E63" s="9">
@@ -4001,17 +2383,17 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E64" s="9">
-        <v>43416</v>
+        <v>43430</v>
       </c>
       <c r="F64" s="9">
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -4019,17 +2401,17 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65" si="2">F65-E65</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E65" s="9">
-        <v>43430</v>
+        <v>43416</v>
       </c>
       <c r="F65" s="9">
-        <v>43439</v>
+        <v>43432</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -4037,17 +2419,17 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D66" si="2">F66-E66</f>
+        <v>9</v>
       </c>
       <c r="E66" s="9">
-        <v>43441</v>
+        <v>43430</v>
       </c>
       <c r="F66" s="9">
-        <v>43441</v>
+        <v>43439</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -4055,14 +2437,14 @@
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" s="9">
-        <v>43439</v>
+        <v>43441</v>
       </c>
       <c r="F67" s="9">
         <v>43441</v>
@@ -4073,7 +2455,7 @@
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
@@ -4091,7 +2473,7 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="0"/>
@@ -4109,7 +2491,7 @@
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="0"/>
@@ -4127,7 +2509,7 @@
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
@@ -4145,7 +2527,7 @@
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
@@ -4163,7 +2545,7 @@
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="0"/>
@@ -4181,7 +2563,7 @@
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="0"/>
@@ -4240,27 +2622,27 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D89" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
@@ -4269,9 +2651,9 @@
       <c r="B90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="15">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "In progress")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" s="16">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Overdue")</f>
@@ -4286,7 +2668,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="16">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Not Started")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
@@ -4301,7 +2683,7 @@
       <c r="B91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="15">
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "In progress")</f>
         <v>1</v>
       </c>
@@ -4333,9 +2715,9 @@
       <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="15">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "In progress")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" s="16">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Overdue")</f>
@@ -4362,10 +2744,10 @@
       <c r="N92" s="16"/>
     </row>
     <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="17">
+      <c r="B93" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="15">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "In progress")</f>
         <v>0</v>
       </c>
@@ -4394,21 +2776,10 @@
       <c r="N93" s="16"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="14"/>
+      <c r="B94" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:N90"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D89:F89"/>
@@ -4420,6 +2791,17 @@
     <mergeCell ref="D93:F93"/>
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="L92:N92"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:XFD1048576 A94 C94:XFD94 A1:B1 H1:XFD1 G89 I89 L89 O89:XFD93 A89:D93 A2:XFD88">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118621A-CC9F-406B-AED8-2A2D4A5248C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB853E75-4D8F-4BD6-8A39-7C439BDE2956}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,6 @@
     <definedName name="Status" localSheetId="1">Fields!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -116,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -401,6 +394,9 @@
   </si>
   <si>
     <t>Compile Senior design day notebook</t>
+  </si>
+  <si>
+    <t>Can not build band pass filter without torroids</t>
   </si>
 </sst>
 </file>
@@ -539,12 +535,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1097,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,21 +1109,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43411</v>
+        <v>43418</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1136,7 +1132,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F67 - B2</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1390,7 +1386,7 @@
         <v>43395</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2082,7 +2078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
@@ -2184,10 +2180,13 @@
         <v>43411</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>33</v>
@@ -2248,7 +2247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="6" t="s">
         <v>34</v>
@@ -2267,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="6" t="s">
         <v>35</v>
@@ -2286,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
       <c r="C60" s="6" t="s">
         <v>37</v>
@@ -2326,7 +2325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="6" t="s">
         <v>38</v>
@@ -2345,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="10" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>39</v>
       </c>
@@ -2627,25 +2626,25 @@
       <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16" t="s">
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16" t="s">
+      <c r="H89" s="18"/>
+      <c r="I89" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16" t="s">
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
@@ -2655,29 +2654,29 @@
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "In progress")</f>
         <v>4</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="18">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16">
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Finished")</f>
         <v>16</v>
       </c>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16">
+      <c r="H90" s="18"/>
+      <c r="I90" s="18">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Not Started")</f>
         <v>1</v>
       </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16">
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18">
         <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
@@ -2687,29 +2686,29 @@
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "In progress")</f>
         <v>1</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="18">
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Overdue")</f>
-        <v>1</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16">
+        <v>0</v>
+      </c>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18">
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Finished")</f>
-        <v>13</v>
-      </c>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16">
+        <v>14</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18">
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16">
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18">
         <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -2717,69 +2716,80 @@
       </c>
       <c r="C92" s="15">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "In progress")</f>
-        <v>4</v>
-      </c>
-      <c r="D92" s="16">
+        <v>3</v>
+      </c>
+      <c r="D92" s="18">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16">
+        <v>1</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Finished")</f>
         <v>10</v>
       </c>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16">
+      <c r="H92" s="18"/>
+      <c r="I92" s="18">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16">
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18">
         <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
     </row>
     <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C93" s="15">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="18">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16">
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Finished")</f>
         <v>2</v>
       </c>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16">
+      <c r="H93" s="18"/>
+      <c r="I93" s="18">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16">
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18">
         <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="17"/>
+      <c r="B94" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:N90"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D89:F89"/>
@@ -2791,17 +2801,6 @@
     <mergeCell ref="D93:F93"/>
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="L92:N92"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:XFD1048576 A94 C94:XFD94 A1:B1 H1:XFD1 G89 I89 L89 O89:XFD93 A89:D93 A2:XFD88">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB853E75-4D8F-4BD6-8A39-7C439BDE2956}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AB8AB-1A92-4021-BF09-9E1C34556450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,14 @@
   <definedNames>
     <definedName name="Status" localSheetId="1">Fields!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -219,9 +226,6 @@
     <t>Create Quadrature Converter</t>
   </si>
   <si>
-    <t>Test Plan</t>
-  </si>
-  <si>
     <t>Configure LCD/Tuner Knob</t>
   </si>
   <si>
@@ -397,6 +401,24 @@
   </si>
   <si>
     <t>Can not build band pass filter without torroids</t>
+  </si>
+  <si>
+    <t>Test Plan Features to be tested/not to be tested (Section 2)</t>
+  </si>
+  <si>
+    <t>Test Plan Overview (Section 1)</t>
+  </si>
+  <si>
+    <t>Testing Approach (Section 3)</t>
+  </si>
+  <si>
+    <t>Test Cases (section 4)</t>
+  </si>
+  <si>
+    <t>Test Schedule</t>
+  </si>
+  <si>
+    <t>Individual Reports Senior Design 1</t>
   </si>
 </sst>
 </file>
@@ -529,18 +551,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1091,17 +1113,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N94"/>
+  <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:G77"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
@@ -1109,16 +1131,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -1131,7 +1153,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F67 - B2</f>
+        <f>F74 - B2</f>
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1187,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D76" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D83" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="9">
@@ -1373,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -1436,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -1457,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -1478,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -1499,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -1520,7 +1542,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -1541,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -1562,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -1583,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -1604,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -1625,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -1646,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -1667,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -1688,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -1709,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -1727,10 +1749,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -1746,12 +1768,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -1767,12 +1789,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -1788,12 +1810,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -1809,12 +1831,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -1830,12 +1852,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -1851,12 +1873,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -1872,12 +1894,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -1893,12 +1915,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -1914,12 +1936,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="9">
         <v>43383</v>
@@ -1931,12 +1953,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -1952,12 +1974,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -1973,99 +1995,102 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="9">
-        <v>43408</v>
+        <v>43388</v>
       </c>
       <c r="F44" s="9">
-        <v>43423</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+        <v>43402</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E45" s="9">
-        <v>43408</v>
+        <v>43397</v>
       </c>
       <c r="F45" s="9">
-        <v>43423</v>
+        <v>43401</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F46" s="9">
+        <v>43405</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E46" s="9">
-        <v>43408</v>
-      </c>
-      <c r="F46" s="9">
-        <v>43423</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E47" s="9">
-        <v>43408</v>
+        <v>43397</v>
       </c>
       <c r="F47" s="9">
-        <v>43423</v>
+        <v>43411</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" ref="D48:D53" si="1">F48-E48</f>
         <v>15</v>
       </c>
       <c r="E48" s="9">
@@ -2074,19 +2099,19 @@
       <c r="F48" s="9">
         <v>43423</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+    <row r="49" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="13">
-        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E49" s="9">
@@ -2095,140 +2120,137 @@
       <c r="F49" s="9">
         <v>43423</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E50" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F50" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E51" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F51" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E52" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F52" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E50" s="9">
-        <v>43388</v>
-      </c>
-      <c r="F50" s="9">
-        <v>43402</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E53" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F53" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E54" s="9">
+        <v>43409</v>
+      </c>
+      <c r="F54" s="9">
+        <v>43430</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E51" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F51" s="9">
-        <v>43401</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="C55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55" si="2">F55-E55</f>
         <v>30</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E52" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F52" s="9">
-        <v>43405</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E53" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E55" s="9">
         <v>43411</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E54" s="9">
-        <v>43411</v>
-      </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>43441</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G55" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E55" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F55" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>33</v>
@@ -2247,7 +2269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="6" t="s">
         <v>34</v>
@@ -2266,7 +2288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="6" t="s">
         <v>35</v>
@@ -2282,15 +2304,15 @@
         <v>43430</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
@@ -2303,506 +2325,613 @@
         <v>43434</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E60" s="9">
         <v>43423</v>
       </c>
       <c r="F60" s="9">
-        <v>43436</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
+        <v>43434</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="E61" s="9">
         <v>43423</v>
       </c>
       <c r="F61" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>43434</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E62" s="9">
-        <v>43425</v>
+        <v>43423</v>
       </c>
       <c r="F62" s="9">
-        <v>43429</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43434</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" ref="D63" si="1">F63-E63</f>
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E63" s="9">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F63" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43434</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="C64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E64" s="9">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F64" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+        <v>43437</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E65" s="9">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="F65" s="9">
-        <v>43432</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+        <v>43437</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C66" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" ref="D66" si="2">F66-E66</f>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E66" s="9">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F66" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+        <v>43437</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
       <c r="C67" s="6" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E67" s="9">
-        <v>43441</v>
+        <v>43423</v>
       </c>
       <c r="F67" s="9">
-        <v>43441</v>
+        <v>43436</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
       <c r="C68" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E68" s="9">
-        <v>43487</v>
+        <v>43423</v>
       </c>
       <c r="F68" s="9">
-        <v>43515</v>
+        <v>43430</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+    <row r="69" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E69" s="9">
-        <v>43487</v>
+        <v>43425</v>
       </c>
       <c r="F69" s="9">
-        <v>43528</v>
-      </c>
-      <c r="G69" s="1" t="s">
+        <v>43429</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f t="shared" ref="D70" si="3">F70-E70</f>
+        <v>9</v>
       </c>
       <c r="E70" s="9">
-        <v>43487</v>
+        <v>43430</v>
       </c>
       <c r="F70" s="9">
-        <v>43528</v>
+        <v>43439</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E71" s="9">
-        <v>43515</v>
+        <v>43430</v>
       </c>
       <c r="F71" s="9">
-        <v>43536</v>
+        <v>43439</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E72" s="9">
-        <v>43515</v>
+        <v>43416</v>
       </c>
       <c r="F72" s="9">
-        <v>43536</v>
+        <v>43432</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" ref="D73" si="4">F73-E73</f>
+        <v>9</v>
       </c>
       <c r="E73" s="9">
-        <v>43536</v>
+        <v>43430</v>
       </c>
       <c r="F73" s="9">
-        <v>43564</v>
+        <v>43439</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" s="6" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E74" s="9">
-        <v>43564</v>
+        <v>43441</v>
       </c>
       <c r="F74" s="9">
-        <v>43591</v>
+        <v>43441</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>8</v>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E75" s="9">
+        <v>43487</v>
+      </c>
+      <c r="F75" s="9">
+        <v>43515</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>5</v>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E76" s="9">
+        <v>43487</v>
+      </c>
+      <c r="F76" s="9">
+        <v>43528</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E77" s="9">
+        <v>43487</v>
+      </c>
+      <c r="F77" s="9">
+        <v>43528</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E78" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F78" s="9">
+        <v>43536</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E79" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F79" s="9">
+        <v>43536</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E80" s="9">
+        <v>43536</v>
+      </c>
+      <c r="F80" s="9">
+        <v>43564</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E81" s="9">
+        <v>43564</v>
+      </c>
+      <c r="F81" s="9">
+        <v>43591</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D96" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="14">
+        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
+        <v>6</v>
+      </c>
+      <c r="D97" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
+        <v>16</v>
+      </c>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="14">
+        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D98" s="16">
+        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16">
+        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
+        <v>14</v>
+      </c>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16">
+        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16">
+        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="14">
+        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
+        <v>4</v>
+      </c>
+      <c r="D99" s="16">
+        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16">
+        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
+        <v>10</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16">
+        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16">
+        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+    </row>
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="15">
-        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "In progress")</f>
-        <v>4</v>
-      </c>
-      <c r="D90" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Overdue")</f>
+      <c r="C100" s="14">
+        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Finished")</f>
-        <v>16</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Not Started")</f>
-        <v>1</v>
-      </c>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell", G5:G83, "Critical")</f>
+      <c r="D100" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="15">
-        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D91" s="18">
-        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Overdue")</f>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
+        <v>2</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18">
-        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Finished")</f>
-        <v>14</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18">
-        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Not Started")</f>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16">
+        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18">
-        <f>COUNTIFS(B5:B83, "Samuel Hussey", G5:G83, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="15">
-        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D92" s="18">
-        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Overdue")</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18">
-        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Finished")</f>
-        <v>10</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18">
-        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18">
-        <f>COUNTIFS(B5:B83, "Zachary Schneiderman", G5:G83, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-    </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="15">
-        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Finished")</f>
-        <v>2</v>
-      </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18">
-        <f>COUNTIFS(B5:B83, "James Bell (Team)", G5:G83, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
   </mergeCells>
-  <conditionalFormatting sqref="A95:XFD1048576 A94 C94:XFD94 A1:B1 H1:XFD1 G89 I89 L89 O89:XFD93 A89:D93 A2:XFD88">
+  <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -2821,7 +2950,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G89 I89 L89 A94:XFD1048576 O89:XFD93 A89:D93 A2:XFD88">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G96 I96 L96 A101:XFD1048576 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -2829,7 +2958,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G93">
+  <conditionalFormatting sqref="G97:G100">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -2839,24 +2968,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G90,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="18" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G90,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G97,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="17" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G90,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G93">
+  <conditionalFormatting sqref="G97:G100">
     <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90:I93">
+  <conditionalFormatting sqref="I97:I100">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -2866,24 +2995,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I90,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I90,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I97,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="10" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I90,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I90:I93">
+  <conditionalFormatting sqref="I97:I100">
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L90:L93">
+  <conditionalFormatting sqref="L97:L100">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -2893,21 +3022,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="5" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L90,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="4" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L90,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L97,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="3" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L90,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L90:L93">
+  <conditionalFormatting sqref="L97:L100">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -2925,7 +3054,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G77</xm:sqref>
+          <xm:sqref>G5:G84</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AB8AB-1A92-4021-BF09-9E1C34556450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D30100-4DF3-44FA-9D3D-647A778AE9E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -1116,7 +1116,7 @@
   <dimension ref="B1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2329,9 @@
       </c>
     </row>
     <row r="60" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="C60" s="6" t="s">
         <v>95</v>
       </c>
@@ -2343,6 +2346,9 @@
       </c>
     </row>
     <row r="61" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C61" s="6" t="s">
         <v>97</v>
       </c>
@@ -2357,6 +2363,9 @@
       </c>
     </row>
     <row r="62" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" s="6" t="s">
         <v>98</v>
       </c>
@@ -2371,6 +2380,9 @@
       </c>
     </row>
     <row r="63" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" s="16">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
@@ -2813,7 +2825,7 @@
       </c>
       <c r="C98" s="14">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="16">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
@@ -2845,7 +2857,7 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" s="16">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D30100-4DF3-44FA-9D3D-647A778AE9E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B60436-8C85-4B5D-BE65-D8E263FE0F8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -412,13 +413,13 @@
     <t>Testing Approach (Section 3)</t>
   </si>
   <si>
-    <t>Test Cases (section 4)</t>
-  </si>
-  <si>
-    <t>Test Schedule</t>
-  </si>
-  <si>
     <t>Individual Reports Senior Design 1</t>
+  </si>
+  <si>
+    <t>Test Schedule (Section 5)</t>
+  </si>
+  <si>
+    <t>Test Cases (Section 4)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -557,12 +558,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1149,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1154,7 +1158,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2251,7 +2255,9 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="B56" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C56" s="6" t="s">
         <v>33</v>
       </c>
@@ -2266,11 +2272,13 @@
         <v>43423</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
+      <c r="B57" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="C57" s="6" t="s">
         <v>34</v>
       </c>
@@ -2289,7 +2297,9 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+      <c r="B58" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C58" s="6" t="s">
         <v>35</v>
       </c>
@@ -2307,33 +2317,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D59" s="16">
+        <f t="shared" ref="D59" si="3">F59-E59</f>
+        <v>7</v>
       </c>
       <c r="E59" s="9">
         <v>43423</v>
       </c>
       <c r="F59" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+        <v>43430</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E60" s="9">
         <v>43423</v>
@@ -2341,16 +2355,16 @@
       <c r="F60" s="9">
         <v>43434</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" s="9">
         <v>43423</v>
@@ -2364,10 +2378,10 @@
     </row>
     <row r="62" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E62" s="9">
         <v>43423</v>
@@ -2381,10 +2395,10 @@
     </row>
     <row r="63" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="9">
         <v>43423</v>
@@ -2398,16 +2412,16 @@
     </row>
     <row r="64" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="9">
         <v>43423</v>
       </c>
       <c r="F64" s="9">
-        <v>43437</v>
+        <v>43434</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>12</v>
@@ -2415,10 +2429,10 @@
     </row>
     <row r="65" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E65" s="9">
         <v>43423</v>
@@ -2432,10 +2446,10 @@
     </row>
     <row r="66" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="9">
         <v>43423</v>
@@ -2447,39 +2461,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
+    <row r="67" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E67" s="9">
         <v>43423</v>
       </c>
       <c r="F67" s="9">
-        <v>43436</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>11</v>
+        <v>43437</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
       <c r="C68" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E68" s="9">
         <v>43423</v>
       </c>
       <c r="F68" s="9">
-        <v>43430</v>
+        <v>43436</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -2500,7 +2512,7 @@
         <v>43429</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -2508,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" ref="D70" si="3">F70-E70</f>
+        <f t="shared" ref="D70" si="4">F70-E70</f>
         <v>9</v>
       </c>
       <c r="E70" s="9">
@@ -2562,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73" si="4">F73-E73</f>
+        <f t="shared" ref="D73" si="5">F73-E73</f>
         <v>9</v>
       </c>
       <c r="E73" s="9">
@@ -2767,25 +2779,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16" t="s">
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16" t="s">
+      <c r="H96" s="19"/>
+      <c r="I96" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16" t="s">
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -2793,31 +2805,31 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>7</v>
-      </c>
-      <c r="D97" s="16">
+        <v>6</v>
+      </c>
+      <c r="D97" s="19">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16">
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
         <v>16</v>
       </c>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16">
+      <c r="H97" s="19"/>
+      <c r="I97" s="19">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16">
+        <v>2</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -2825,31 +2837,31 @@
       </c>
       <c r="C98" s="14">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
-        <v>4</v>
-      </c>
-      <c r="D98" s="16">
+        <v>5</v>
+      </c>
+      <c r="D98" s="19">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16">
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
         <v>14</v>
       </c>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16">
+      <c r="H98" s="19"/>
+      <c r="I98" s="19">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16">
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -2857,31 +2869,31 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>5</v>
-      </c>
-      <c r="D99" s="16">
+        <v>6</v>
+      </c>
+      <c r="D99" s="19">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>1</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16">
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>10</v>
-      </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16">
+        <v>11</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16">
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
@@ -2891,35 +2903,46 @@
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="19">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16">
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>2</v>
       </c>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16">
+      <c r="H100" s="19"/>
+      <c r="I100" s="19">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16">
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -2931,17 +2954,6 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B60436-8C85-4B5D-BE65-D8E263FE0F8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1FD7D-CA20-453C-84C8-A1753B322669}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>Test Cases (Section 4)</t>
+  </si>
+  <si>
+    <t>Not currently doable</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -563,10 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,21 +1141,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1158,7 +1164,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2104,10 +2110,10 @@
         <v>43423</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
         <v>24</v>
       </c>
@@ -2125,10 +2131,10 @@
         <v>43423</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
         <v>25</v>
       </c>
@@ -2146,10 +2152,10 @@
         <v>43423</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
         <v>30</v>
       </c>
@@ -2167,10 +2173,10 @@
         <v>43423</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>25</v>
       </c>
@@ -2188,10 +2194,10 @@
         <v>43423</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>24</v>
       </c>
@@ -2209,10 +2215,10 @@
         <v>43423</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>24</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>25</v>
       </c>
@@ -2274,8 +2280,11 @@
       <c r="G56" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>24</v>
       </c>
@@ -2296,92 +2305,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
+    <row r="58" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" ref="D58" si="3">F58-E58</f>
+        <v>4</v>
+      </c>
+      <c r="E58" s="9">
+        <v>43425</v>
+      </c>
+      <c r="F58" s="9">
+        <v>43429</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D59" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>43409</v>
-      </c>
-      <c r="F58" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="16">
-        <f t="shared" ref="D59" si="3">F59-E59</f>
-        <v>7</v>
-      </c>
-      <c r="E59" s="9">
-        <v>43423</v>
       </c>
       <c r="F59" s="9">
         <v>43430</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="G59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" ref="D60:D61" si="4">F60-E60</f>
+        <v>7</v>
       </c>
       <c r="E60" s="9">
         <v>43423</v>
       </c>
       <c r="F60" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G60" s="1" t="s">
+        <v>43430</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="E61" s="9">
+        <v>43416</v>
+      </c>
+      <c r="F61" s="9">
+        <v>43432</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="9">
-        <v>43423</v>
-      </c>
-      <c r="F61" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
-        <v>30</v>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E62" s="9">
         <v>43423</v>
@@ -2389,16 +2403,16 @@
       <c r="F62" s="9">
         <v>43434</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
-        <v>25</v>
+    <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E63" s="9">
         <v>43423</v>
@@ -2410,12 +2424,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E64" s="9">
         <v>43423</v>
@@ -2429,16 +2443,16 @@
     </row>
     <row r="65" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="9">
         <v>43423</v>
       </c>
       <c r="F65" s="9">
-        <v>43437</v>
+        <v>43434</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>12</v>
@@ -2446,16 +2460,16 @@
     </row>
     <row r="66" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="9">
         <v>43423</v>
       </c>
       <c r="F66" s="9">
-        <v>43437</v>
+        <v>43434</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>12</v>
@@ -2463,7 +2477,7 @@
     </row>
     <row r="67" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>98</v>
@@ -2478,56 +2492,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
+    <row r="68" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E68" s="9">
         <v>43423</v>
       </c>
       <c r="F68" s="9">
+        <v>43437</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="9">
+        <v>43423</v>
+      </c>
+      <c r="F69" s="9">
+        <v>43437</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E70" s="9">
+        <v>43423</v>
+      </c>
+      <c r="F70" s="9">
         <v>43436</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E69" s="9">
-        <v>43425</v>
-      </c>
-      <c r="F69" s="9">
-        <v>43429</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" ref="D70" si="4">F70-E70</f>
-        <v>9</v>
-      </c>
-      <c r="E70" s="9">
-        <v>43430</v>
-      </c>
-      <c r="F70" s="9">
-        <v>43439</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -2538,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D71" si="5">F71-E71</f>
         <v>9</v>
       </c>
       <c r="E71" s="9">
@@ -2553,17 +2565,17 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E72" s="9">
-        <v>43416</v>
+        <v>43430</v>
       </c>
       <c r="F72" s="9">
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -2574,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73" si="5">F73-E73</f>
+        <f t="shared" ref="D73" si="6">F73-E73</f>
         <v>9</v>
       </c>
       <c r="E73" s="9">
@@ -2779,25 +2791,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19" t="s">
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19" t="s">
+      <c r="H96" s="18"/>
+      <c r="I96" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19" t="s">
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -2805,31 +2817,31 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>6</v>
-      </c>
-      <c r="D97" s="19">
+        <v>3</v>
+      </c>
+      <c r="D97" s="18">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19">
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
-        <v>16</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19">
+        <v>19</v>
+      </c>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19">
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -2837,31 +2849,31 @@
       </c>
       <c r="C98" s="14">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
-        <v>5</v>
-      </c>
-      <c r="D98" s="19">
+        <v>4</v>
+      </c>
+      <c r="D98" s="18">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19">
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
-        <v>14</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19">
+        <v>15</v>
+      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19">
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -2869,80 +2881,69 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>6</v>
-      </c>
-      <c r="D99" s="19">
+        <v>5</v>
+      </c>
+      <c r="D99" s="18">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>1</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19">
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>11</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19">
+        <v>13</v>
+      </c>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19">
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="14">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19">
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>2</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19">
+      <c r="H100" s="18"/>
+      <c r="I100" s="18">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19">
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="17"/>
+      <c r="B101" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -2954,6 +2955,17 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1FD7D-CA20-453C-84C8-A1753B322669}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA18ACF-43AB-463B-9A9E-85B219EF7DC5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -567,12 +567,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,14 +1141,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>43423</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>101</v>
@@ -2404,7 +2404,7 @@
         <v>43434</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2791,25 +2791,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18" t="s">
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18" t="s">
+      <c r="H96" s="20"/>
+      <c r="I96" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18" t="s">
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -2817,31 +2817,31 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D97" s="18">
+        <v>2</v>
+      </c>
+      <c r="D97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18">
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
-        <v>19</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18">
+        <v>20</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18">
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -2851,29 +2851,29 @@
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
         <v>4</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18">
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
         <v>15</v>
       </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18">
+      <c r="H98" s="20"/>
+      <c r="I98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18">
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -2881,69 +2881,80 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>5</v>
-      </c>
-      <c r="D99" s="18">
+        <v>4</v>
+      </c>
+      <c r="D99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
-        <v>1</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18">
+        <v>2</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
         <v>13</v>
       </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18">
+      <c r="H99" s="20"/>
+      <c r="I99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18">
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="14">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18">
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>2</v>
       </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18">
+      <c r="H100" s="20"/>
+      <c r="I100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18">
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
+      <c r="B101" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -2955,17 +2966,6 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="between">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Desktop\Needs work 11_28_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA18ACF-43AB-463B-9A9E-85B219EF7DC5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BE44A-1D09-409D-A013-2DFFCCCF0032}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1125,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1154,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43430</v>
+        <v>43432</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1164,7 +1163,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -2236,7 +2235,7 @@
         <v>43430</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,7 +2880,7 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
@@ -2891,7 +2890,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" s="20"/>
       <c r="I99" s="20">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Desktop\Needs work 11_28_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BE44A-1D09-409D-A013-2DFFCCCF0032}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
-    <sheet name="Fields" sheetId="2" r:id="rId2"/>
+    <sheet name="James Tasks Only (For D1 rprt)" sheetId="3" r:id="rId2"/>
+    <sheet name="Zachs Tasks Only (For D1 rprt)" sheetId="4" r:id="rId3"/>
+    <sheet name="Samual Tasks Only (for D1 rprt)" sheetId="5" r:id="rId4"/>
+    <sheet name="Fields" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Status" localSheetId="1">Fields!$A$1:$A$7</definedName>
+    <definedName name="Status" localSheetId="4">Fields!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +87,262 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Briefly describe the deliverable the DRI must provide back to the team.
+GOOD:  Power Budget &amp; Battery Recommendation
+BAD:  Investigate Battery Technologies</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hinkle, Lee B</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To automatically add todays date hold down &lt;cntrl&gt; press = key then ; key.  This will enter a static date that won't change.
+If you use =TODAY(); it will update automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Designated Responsible Individual.   Put the name of the team member responsible for the task here.   If more then one, pick the lead person (or better yet divide the task further into individual tasks)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Briefly describe the deliverable the DRI must provide back to the team.
+GOOD:  Power Budget &amp; Battery Recommendation
+BAD:  Investigate Battery Technologies</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hinkle, Lee B</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To automatically add todays date hold down &lt;cntrl&gt; press = key then ; key.  This will enter a static date that won't change.
+If you use =TODAY(); it will update automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Designated Responsible Individual.   Put the name of the team member responsible for the task here.   If more then one, pick the lead person (or better yet divide the task further into individual tasks)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Briefly describe the deliverable the DRI must provide back to the team.
+GOOD:  Power Budget &amp; Battery Recommendation
+BAD:  Investigate Battery Technologies</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hinkle, Lee B</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To automatically add todays date hold down &lt;cntrl&gt; press = key then ; key.  This will enter a static date that won't change.
+If you use =TODAY(); it will update automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hinkle, Lee B:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Designated Responsible Individual.   Put the name of the team member responsible for the task here.   If more then one, pick the lead person (or better yet divide the task further into individual tasks)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="105">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -422,12 +679,21 @@
   </si>
   <si>
     <t>Not currently doable</t>
+  </si>
+  <si>
+    <t>1.12 Software Defined Radio Milestone Schedule (James Only)</t>
+  </si>
+  <si>
+    <t>1.12 Software Defined Radio Milestone Schedule (Zach only)</t>
+  </si>
+  <si>
+    <t>1.12 Software Defined Radio Milestone Schedule (Samual Only)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -568,6 +834,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -578,7 +847,1855 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="293">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -877,23 +2994,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -929,23 +3029,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,11 +3204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,14 +3223,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1863,7 +3946,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -2382,7 +4465,7 @@
         <v>43432</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -2790,25 +4873,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20" t="s">
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20" t="s">
+      <c r="H96" s="21"/>
+      <c r="I96" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20" t="s">
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -2818,29 +4901,29 @@
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20">
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
         <v>20</v>
       </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20">
+      <c r="H97" s="21"/>
+      <c r="I97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20">
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -2850,29 +4933,29 @@
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
         <v>4</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20">
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
         <v>15</v>
       </c>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20">
+      <c r="H98" s="21"/>
+      <c r="I98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20">
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -2880,66 +4963,66 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D99" s="20">
+        <v>2</v>
+      </c>
+      <c r="D99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>2</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20">
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>14</v>
-      </c>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20">
+        <v>16</v>
+      </c>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20">
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="14">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20">
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
-        <v>2</v>
-      </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20">
+        <v>1</v>
+      </c>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20">
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="18"/>
+      <c r="B101" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2967,115 +5050,115 @@
     <mergeCell ref="I100:K100"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="291" priority="29" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="26" priority="32" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="290" priority="32" operator="endsWith" text="Not Started">
       <formula>RIGHT(A1,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="25" priority="33" stopIfTrue="1" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="289" priority="33" stopIfTrue="1" operator="endsWith" text="In progress">
       <formula>RIGHT(A1,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="24" priority="34" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="288" priority="34" operator="endsWith" text="Finished">
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 H1:XFD1 G96 I96 L96 A101:XFD1048576 O96:XFD100 A96:D100 A2:XFD95">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Overdue">
+    <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="286" priority="27" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:G100">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="284" priority="22" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
       <formula>RIGHT(G97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="18" priority="24" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
       <formula>RIGHT(G97,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="17" priority="25" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
       <formula>RIGHT(G97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:G100">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Overdue">
+    <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",G97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:I100">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="277" priority="15" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
       <formula>RIGHT(I97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
       <formula>RIGHT(I97,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="10" priority="18" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
       <formula>RIGHT(I97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:I100">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Overdue">
+    <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",I97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",I97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L97:L100">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="8" operator="between">
       <formula>43343</formula>
       <formula>43466</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="5" priority="9" operator="endsWith" text="Not Started">
+    <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
       <formula>RIGHT(L97,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="4" priority="10" operator="endsWith" text="In progress">
+    <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
       <formula>RIGHT(L97,LEN("In progress"))="In progress"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="3" priority="11" operator="endsWith" text="Finished">
+    <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
       <formula>RIGHT(L97,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L97:L100">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Overdue">
+    <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",L97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",L97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="264" priority="1">
       <formula>$G1="In progress"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,7 +5168,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -3098,7 +5181,4246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D26" si="0">F6-E6</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43357</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43355</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F17" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43383</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43395</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43388</v>
+      </c>
+      <c r="F21" s="9">
+        <v>43402</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F22" s="9">
+        <v>43401</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F23" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E24" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F24" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E25" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F25" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E26" s="9">
+        <v>43423</v>
+      </c>
+      <c r="F26" s="9">
+        <v>43434</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2 B3:G5">
+    <cfRule type="cellIs" dxfId="263" priority="1" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="2" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="cellIs" dxfId="261" priority="45" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="46" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G8">
+    <cfRule type="cellIs" dxfId="259" priority="78" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="79" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:G12">
+    <cfRule type="cellIs" dxfId="257" priority="117" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="118" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:G13">
+    <cfRule type="cellIs" dxfId="255" priority="164" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="165" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:G14">
+    <cfRule type="cellIs" dxfId="253" priority="219" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="220" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:G18">
+    <cfRule type="cellIs" dxfId="251" priority="282" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="283" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:G19">
+    <cfRule type="cellIs" dxfId="249" priority="427" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="428" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:G20">
+    <cfRule type="cellIs" dxfId="247" priority="503" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="504" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:G22">
+    <cfRule type="cellIs" dxfId="245" priority="590" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="591" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="cellIs" dxfId="243" priority="783" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="784" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:G24">
+    <cfRule type="cellIs" dxfId="241" priority="1065" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="1066" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:G25 G26">
+    <cfRule type="cellIs" dxfId="239" priority="1274" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="1275" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="3" operator="endsWith" text="Not Started" id="{85F380E0-3D5C-4849-8ACF-8CA9496A17E5}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4" stopIfTrue="1" operator="endsWith" text="In progress" id="{E8DE12C8-9117-4512-882A-BFFABF8D1B42}">
+            <xm:f>RIGHT('F''18'!B2,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5" operator="endsWith" text="Finished" id="{79C84295-1370-4F6A-9CDA-B07271F66F80}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1276" operator="containsText" text="Overdue" id="{6A855657-F949-4F10-B5C6-A1BE013D6281}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1276" operator="containsText" text="Critical" id="{E91818ED-9A93-4816-BDE5-10154F7FE4F8}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1277" id="{5F0C5B75-CE0A-4ECA-A6A9-12FC73B471E8}">
+            <xm:f>'F''18'!$G2="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="47" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B8,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="48" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B8,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="49" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B8,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="55" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G8="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="80" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B11,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="81" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B11,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="82" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B11,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="85" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="86" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="88" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G11="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="119" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B18,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="120" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B18,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="121" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B18,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="124" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="125" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B18)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="127" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G18="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="166" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B26,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="167" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B26,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="168" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B26,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B13:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="171" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="172" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B26)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B13:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="174" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G26="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B13:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="221" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B29,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="222" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B29,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="223" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B29,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="226" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="227" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B29)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="229" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G29="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="284" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B33,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="285" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B33,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="286" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B33,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="289" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="290" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B33)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="292" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G33="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="429" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B39,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="430" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B39,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="431" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B39,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="432" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="433" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B39)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="434" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G39="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="505" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B41,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="506" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B41,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="507" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B41,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="510" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="511" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B41)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="513" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G41="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="592" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B45,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="593" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B45,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="594" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B45,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="597" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B45)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="598" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B45)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="600" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G45="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="785" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B63,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="786" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B63,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="787" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B63,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B26:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="788" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B63)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="789" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B63)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B26:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="790" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G63="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B26:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1067" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B49,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1068" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B49,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1069" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B49,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1072" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B49)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1073" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B49)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1075" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G49="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1278" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
+            <xm:f>RIGHT('F''18'!B54,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1278" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
+            <xm:f>RIGHT('F''18'!B54,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1278" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
+            <xm:f>RIGHT('F''18'!B54,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B25:G25 G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1279" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B54)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1280" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B54)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B25:G25 G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1281" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
+            <xm:f>'F''18'!$G54="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B25:G25 G26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Fields!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D21" si="0">F6-E6</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43357</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43355</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43395</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="9">
+        <v>43383</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F17" s="9">
+        <v>43411</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43409</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43430</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43416</v>
+      </c>
+      <c r="F21" s="9">
+        <v>43432</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2 B3:G21">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="3" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B2,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G2="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1381" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B7,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1382" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B7,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1383" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B7,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1388" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1389" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B7)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1391" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G7="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B6:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1499" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B9,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1500" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B9,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1501" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B9,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1504" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1505" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B9)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1507" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G9="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1621" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B13,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1622" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B13,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1623" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B13,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1626" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B13)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1627" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B13)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1629" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G13="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1749" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B15,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1750" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B15,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1751" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B15,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1754" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1755" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B15)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1757" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G15="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="1883" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B22,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1884" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B22,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="1885" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B22,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B10:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1888" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1889" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B22)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B10:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1891" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G22="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B10:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2023" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B27,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2024" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B27,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2025" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B27,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2028" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2029" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B27)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2031" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G27="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2169" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B32,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2170" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B32,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2171" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B32,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2174" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2175" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B32)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2177" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G32="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2321" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B38,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2322" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B38,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2323" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B38,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2326" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2327" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B38)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2329" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G38="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B15:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2479" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B42,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2480" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B42,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2481" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B42,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2484" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B42)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2485" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B42)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2487" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G42="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2643" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B48,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2644" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B48,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2645" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B48,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2648" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B48)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2649" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B48)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2651" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G48="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2813" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B51,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2814" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B51,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2815" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B51,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2818" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B51)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2819" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B51)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2821" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G51="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="2989" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B53,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2990" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B53,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2991" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B53,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2994" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B53)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2995" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B53)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2997" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G53="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="3171" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B55,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="3172" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B55,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="3173" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B55,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3176" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B55)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3177" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B55)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3179" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G55="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="4302" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
+            <xm:f>RIGHT('F''18'!B62,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4303" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
+            <xm:f>RIGHT('F''18'!B62,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4304" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
+            <xm:f>RIGHT('F''18'!B62,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4305" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B62)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4306" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B62)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4307" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
+            <xm:f>'F''18'!$G62="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Fields!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18">
+        <f>F6-E6</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" ref="D7:D21" si="0">F7-E7</f>
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43367</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43343</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43357</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43355</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43395</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43355</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43395</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43355</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43374</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43383</v>
+      </c>
+      <c r="F17" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43383</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43383</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43388</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43397</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43405</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F21" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2 B3:G21">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="3" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B2,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B2,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2 B3:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G2="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="4702" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B10,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4703" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B10,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4704" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B10,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4709" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4710" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B10)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4712" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G10="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="4921" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B14,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4922" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B14,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="4923" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B14,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4926" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4927" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B14)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4929" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G14="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="5144" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B16,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5145" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B16,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5146" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B16,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5149" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5150" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B16)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5152" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G16="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="5373" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B24,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5374" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B24,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5375" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B24,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5378" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B24)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5379" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B24)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5381" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G24="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B12:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="5608" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B30,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5609" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B30,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5610" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B30,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5613" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B30)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5614" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B30)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5616" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G30="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14:G15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="5849" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B37,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5850" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B37,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5851" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B37,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5854" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B37)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5855" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B37)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5857" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G37="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6096" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B40,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6097" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B40,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6098" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B40,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6101" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6102" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B40)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6104" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G40="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6349" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B43,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6350" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B43,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6351" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B43,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6354" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B43)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6355" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B43)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6357" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G43="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B18:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6608" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B47,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6609" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B47,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6610" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B47,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6613" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B47)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6614" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B47)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6616" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G47="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6873" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B52,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6874" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B52,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="6875" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B52,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6878" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B52)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6879" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B52)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6881" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G52="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Fields!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F43284C-D85E-4D9B-9819-6489245EC53A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -21,11 +22,12 @@
   <definedNames>
     <definedName name="Status" localSheetId="4">Fields!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,12 +120,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -203,12 +205,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -288,12 +290,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +695,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -837,10 +839,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2994,6 +2999,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3029,6 +3051,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3204,10 +3243,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
@@ -3223,14 +3262,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
@@ -4873,25 +4912,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21" t="s">
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21" t="s">
+      <c r="H96" s="20"/>
+      <c r="I96" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21" t="s">
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -4901,29 +4940,29 @@
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21">
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
         <v>20</v>
       </c>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21">
+      <c r="H97" s="20"/>
+      <c r="I97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21">
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -4933,29 +4972,29 @@
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
         <v>4</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21">
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
         <v>15</v>
       </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21">
+      <c r="H98" s="20"/>
+      <c r="I98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21">
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -4965,78 +5004,67 @@
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>2</v>
       </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21">
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
         <v>16</v>
       </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21">
+      <c r="H99" s="20"/>
+      <c r="I99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21">
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="14">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21">
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>1</v>
       </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21">
+      <c r="H100" s="20"/>
+      <c r="I100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21">
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
+      <c r="B101" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -5048,6 +5076,17 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
@@ -5168,7 +5207,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -5181,11 +5220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5198,14 +5237,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -6732,7 +6771,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -6745,11 +6784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B2" sqref="B2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,14 +6801,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -7060,8 +7099,8 @@
       <c r="F17" s="9">
         <v>43411</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>14</v>
+      <c r="G17" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -7819,7 +7858,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B16:G16</xm:sqref>
+          <xm:sqref>B16:G16 G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2484" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
@@ -7842,7 +7881,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B16:G16</xm:sqref>
+          <xm:sqref>B16:G16 G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2487" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
@@ -7855,7 +7894,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B16:G16</xm:sqref>
+          <xm:sqref>B16:G16 G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="2643" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
@@ -8206,7 +8245,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -8219,11 +8258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8236,14 +8275,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -9407,7 +9446,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -9420,7 +9459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F43284C-D85E-4D9B-9819-6489245EC53A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055670CC-DCC9-4D82-9E47-37D5021D6B97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -840,12 +840,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3246,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43432</v>
+        <v>43437</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3285,7 +3288,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -4541,8 +4544,8 @@
       <c r="F63" s="9">
         <v>43434</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>12</v>
+      <c r="G63" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4558,8 +4561,8 @@
       <c r="F64" s="9">
         <v>43434</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>12</v>
+      <c r="G64" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4575,8 +4578,8 @@
       <c r="F65" s="9">
         <v>43434</v>
       </c>
-      <c r="G65" s="15" t="s">
-        <v>12</v>
+      <c r="G65" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4592,8 +4595,8 @@
       <c r="F66" s="9">
         <v>43434</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>12</v>
+      <c r="G66" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4609,8 +4612,8 @@
       <c r="F67" s="9">
         <v>43437</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>12</v>
+      <c r="G67" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4626,8 +4629,8 @@
       <c r="F68" s="9">
         <v>43437</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>12</v>
+      <c r="G68" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4643,8 +4646,8 @@
       <c r="F69" s="9">
         <v>43437</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>12</v>
+      <c r="G69" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -4912,25 +4915,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20" t="s">
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20" t="s">
+      <c r="H96" s="23"/>
+      <c r="I96" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20" t="s">
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -4938,31 +4941,31 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D97" s="20">
+        <v>1</v>
+      </c>
+      <c r="D97" s="23">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20">
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
-        <v>20</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20">
+        <v>21</v>
+      </c>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20">
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -4970,31 +4973,31 @@
       </c>
       <c r="C98" s="14">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
-        <v>4</v>
-      </c>
-      <c r="D98" s="20">
+        <v>0</v>
+      </c>
+      <c r="D98" s="23">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20">
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
-        <v>15</v>
-      </c>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20">
+        <v>19</v>
+      </c>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20">
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -5002,31 +5005,31 @@
       </c>
       <c r="C99" s="14">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D99" s="20">
+        <v>0</v>
+      </c>
+      <c r="D99" s="23">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>2</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20">
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>16</v>
-      </c>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20">
+        <v>18</v>
+      </c>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20">
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="21" t="s">
@@ -5036,35 +5039,46 @@
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="23">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20">
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>1</v>
       </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20">
+      <c r="H100" s="23"/>
+      <c r="I100" s="23">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20">
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -5076,17 +5090,6 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
@@ -8261,7 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055670CC-DCC9-4D82-9E47-37D5021D6B97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77457C-048F-4439-BD11-C4F12CC3A085}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,12 +843,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,21 +3265,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43437</v>
+        <v>43439</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3288,7 +3288,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F74 - B2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -4381,7 +4381,7 @@
         <v>43441</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -4915,25 +4915,25 @@
       <c r="C96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23" t="s">
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23" t="s">
+      <c r="H96" s="21"/>
+      <c r="I96" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23" t="s">
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -4941,31 +4941,31 @@
       </c>
       <c r="C97" s="14">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D97" s="23">
+        <v>0</v>
+      </c>
+      <c r="D97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23">
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
-        <v>21</v>
-      </c>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23">
+        <v>22</v>
+      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23">
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21">
         <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
@@ -4975,29 +4975,29 @@
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23">
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
         <v>19</v>
       </c>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23">
+      <c r="H98" s="21"/>
+      <c r="I98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23">
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21">
         <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
@@ -5007,78 +5007,67 @@
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
         <v>2</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23">
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
         <v>18</v>
       </c>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23">
+      <c r="H99" s="21"/>
+      <c r="I99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23">
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21">
         <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
     </row>
     <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="14">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23">
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
         <v>1</v>
       </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23">
+      <c r="H100" s="21"/>
+      <c r="I100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23">
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21">
         <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="21"/>
+      <c r="B101" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D96:F96"/>
@@ -5090,6 +5079,17 @@
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
   </mergeCells>
   <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
@@ -5240,14 +5240,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -6804,14 +6804,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8278,14 +8278,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77457C-048F-4439-BD11-C4F12CC3A085}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C5E26F-5983-477C-9E9D-2832D2A9175B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="104">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -479,24 +479,12 @@
     <t>Test/Benchmark Circuits</t>
   </si>
   <si>
-    <t>Develop Passthrough Tests</t>
-  </si>
-  <si>
     <t>Create Quadrature Converter</t>
   </si>
   <si>
-    <t>Configure LCD/Tuner Knob</t>
-  </si>
-  <si>
     <t>Implement RF Receive Code</t>
   </si>
   <si>
-    <t>Receive/Tune tests</t>
-  </si>
-  <si>
-    <t>Transmitting/Tune tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add licensing selection to radio </t>
   </si>
   <si>
@@ -581,18 +569,12 @@
     <t>Functional Spec section 5 (Approvals)</t>
   </si>
   <si>
-    <t>James Bell (Team)</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
     <t>Total Tasks In progress</t>
   </si>
   <si>
-    <t>"Team" tasks (To do in adhoc meetings</t>
-  </si>
-  <si>
     <t>Bandpass Filter Simulation</t>
   </si>
   <si>
@@ -659,9 +641,6 @@
     <t>Compile Senior design day notebook</t>
   </si>
   <si>
-    <t>Can not build band pass filter without torroids</t>
-  </si>
-  <si>
     <t>Test Plan Features to be tested/not to be tested (Section 2)</t>
   </si>
   <si>
@@ -680,9 +659,6 @@
     <t>Test Cases (Section 4)</t>
   </si>
   <si>
-    <t>Not currently doable</t>
-  </si>
-  <si>
     <t>1.12 Software Defined Radio Milestone Schedule (James Only)</t>
   </si>
   <si>
@@ -690,13 +666,34 @@
   </si>
   <si>
     <t>1.12 Software Defined Radio Milestone Schedule (Samual Only)</t>
+  </si>
+  <si>
+    <t>Combine Audio transformer and Low pass filter</t>
+  </si>
+  <si>
+    <t>RF Splitter and combiner</t>
+  </si>
+  <si>
+    <t>Mixer Circuit, (clock gen -&gt; mixer)</t>
+  </si>
+  <si>
+    <t>Speaker Circuit (Audio sheild -&gt; Speaker)</t>
+  </si>
+  <si>
+    <t>LCD for Teensy</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Bandpass Filters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,12 +735,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -812,12 +803,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -843,12 +828,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3247,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N101"/>
+  <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:G84"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,21 +3253,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43439</v>
+        <v>43500</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3287,8 +3275,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F74 - B2</f>
-        <v>2</v>
+        <f>F88 - B2</f>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3343,7 +3331,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D83" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D87" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="9">
@@ -3525,11 +3513,11 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -3592,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -3613,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -3634,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -3655,7 +3643,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -3676,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -3697,7 +3685,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -3718,7 +3706,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -3739,7 +3727,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -3760,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -3781,7 +3769,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -3802,7 +3790,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -3823,7 +3811,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -3844,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3865,7 +3853,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3883,10 +3871,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3902,12 +3890,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3923,12 +3911,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3944,12 +3932,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3965,12 +3953,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -3986,12 +3974,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -4007,12 +3995,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -4028,12 +4016,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -4049,12 +4037,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -4070,12 +4058,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E41" s="9">
         <v>43383</v>
@@ -4087,12 +4075,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -4108,12 +4096,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -4129,12 +4117,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -4146,16 +4134,16 @@
       <c r="F44" s="9">
         <v>43402</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
@@ -4167,18 +4155,18 @@
       <c r="F45" s="9">
         <v>43401</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="1">
+        <v>75</v>
+      </c>
+      <c r="D46" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4188,43 +4176,40 @@
       <c r="F46" s="9">
         <v>43405</v>
       </c>
-      <c r="G46" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>25</v>
+      <c r="G46" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E47" s="9">
+        <v>43408</v>
+      </c>
+      <c r="F47" s="9">
+        <v>43423</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E47" s="9">
-        <v>43397</v>
-      </c>
-      <c r="F47" s="9">
-        <v>43411</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="15">
-        <f t="shared" ref="D48:D53" si="1">F48-E48</f>
+      <c r="D48" s="19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E48" s="9">
@@ -4233,19 +4218,19 @@
       <c r="F48" s="9">
         <v>43423</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
-        <v>24</v>
+      <c r="G48" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="15">
-        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D49" s="19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E49" s="9">
@@ -4254,19 +4239,19 @@
       <c r="F49" s="9">
         <v>43423</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
-        <v>25</v>
+      <c r="G49" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="15">
-        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D50" s="19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E50" s="9">
@@ -4275,19 +4260,19 @@
       <c r="F50" s="9">
         <v>43423</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>30</v>
+      <c r="G50" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="15">
-        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D51" s="19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E51" s="9">
@@ -4296,19 +4281,19 @@
       <c r="F51" s="9">
         <v>43423</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>25</v>
+      <c r="G51" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="15">
-        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E52" s="9">
@@ -4317,207 +4302,204 @@
       <c r="F52" s="9">
         <v>43423</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="G52" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E53" s="9">
+        <v>43409</v>
+      </c>
+      <c r="F53" s="9">
+        <v>43430</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E53" s="9">
-        <v>43408</v>
-      </c>
-      <c r="F53" s="9">
-        <v>43423</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E54" s="9">
+        <v>43411</v>
+      </c>
+      <c r="F54" s="9">
+        <v>43441</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E55" s="9">
+        <v>43425</v>
+      </c>
+      <c r="F55" s="9">
+        <v>43429</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
-      </c>
-      <c r="E54" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F54" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="15">
-        <f t="shared" ref="D55" si="2">F55-E55</f>
-        <v>30</v>
-      </c>
-      <c r="E55" s="9">
-        <v>43411</v>
-      </c>
-      <c r="F55" s="9">
-        <v>43441</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="E56" s="9">
         <v>43409</v>
       </c>
       <c r="F56" s="9">
+        <v>43430</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E57" s="9">
+        <v>43416</v>
+      </c>
+      <c r="F57" s="9">
+        <v>43432</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E58" s="9">
         <v>43423</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E57" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
+        <v>43434</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E59" s="9">
         <v>43423</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="F59" s="9">
+        <v>43434</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="11">
-        <f t="shared" ref="D58" si="3">F58-E58</f>
-        <v>4</v>
-      </c>
-      <c r="E58" s="9">
-        <v>43425</v>
-      </c>
-      <c r="F58" s="9">
-        <v>43429</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E59" s="9">
-        <v>43409</v>
-      </c>
-      <c r="F59" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="16">
-        <f t="shared" ref="D60:D61" si="4">F60-E60</f>
-        <v>7</v>
       </c>
       <c r="E60" s="9">
         <v>43423</v>
       </c>
       <c r="F60" s="9">
-        <v>43430</v>
-      </c>
-      <c r="G60" s="16" t="s">
+        <v>43434</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="17">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
       <c r="E61" s="9">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="F61" s="9">
-        <v>43432</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>43434</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="1">
+        <v>92</v>
+      </c>
+      <c r="D62" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -4527,323 +4509,342 @@
       <c r="F62" s="9">
         <v>43434</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>30</v>
+      <c r="G62" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D63" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E63" s="9">
         <v>43423</v>
       </c>
       <c r="F63" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>30</v>
+        <v>43437</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D64" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E64" s="9">
         <v>43423</v>
       </c>
       <c r="F64" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
-        <v>25</v>
+        <v>43437</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="D65" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E65" s="9">
         <v>43423</v>
       </c>
       <c r="F65" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
-        <v>30</v>
-      </c>
+        <v>43437</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="D66" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E66" s="9">
-        <v>43423</v>
+        <v>43441</v>
       </c>
       <c r="F66" s="9">
-        <v>43434</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
+        <v>43441</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="9">
-        <v>43423</v>
-      </c>
-      <c r="F67" s="9">
-        <v>43437</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D68" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E68" s="9">
-        <v>43423</v>
+        <v>43493</v>
       </c>
       <c r="F68" s="9">
-        <v>43437</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
-        <v>30</v>
+        <v>43500</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="D69" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="E69" s="9">
-        <v>43423</v>
+        <v>43493</v>
       </c>
       <c r="F69" s="9">
-        <v>43437</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
+        <v>43502</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E70" s="9">
+        <v>43493</v>
+      </c>
+      <c r="F70" s="9">
+        <v>43509</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E71" s="9">
+        <v>43500</v>
+      </c>
+      <c r="F71" s="9">
+        <v>43516</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="19">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E72" s="9">
+        <v>43493</v>
+      </c>
+      <c r="F72" s="9">
+        <v>43544</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E73" s="9">
+        <v>43493</v>
+      </c>
+      <c r="F73" s="9">
+        <v>43516</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E74" s="9">
+        <v>43500</v>
+      </c>
+      <c r="F74" s="9">
+        <v>43516</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E75" s="9">
+        <v>43500</v>
+      </c>
+      <c r="F75" s="9">
+        <v>43516</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E76" s="9">
+        <v>43500</v>
+      </c>
+      <c r="F76" s="9">
+        <v>43516</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E70" s="9">
-        <v>43423</v>
-      </c>
-      <c r="F70" s="9">
-        <v>43436</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="D77" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E77" s="9">
+        <v>43521</v>
+      </c>
+      <c r="F77" s="9">
+        <v>43537</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" ref="D71" si="5">F71-E71</f>
-        <v>9</v>
-      </c>
-      <c r="E71" s="9">
-        <v>43430</v>
-      </c>
-      <c r="F71" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E72" s="9">
-        <v>43430</v>
-      </c>
-      <c r="F72" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" ref="D73" si="6">F73-E73</f>
-        <v>9</v>
-      </c>
-      <c r="E73" s="9">
-        <v>43430</v>
-      </c>
-      <c r="F73" s="9">
-        <v>43439</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="9">
-        <v>43441</v>
-      </c>
-      <c r="F74" s="9">
-        <v>43441</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E75" s="9">
+    <row r="78" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="19">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E79" s="9">
         <v>43487</v>
       </c>
-      <c r="F75" s="9">
-        <v>43515</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E76" s="9">
-        <v>43487</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="F79" s="9">
         <v>43528</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E77" s="9">
-        <v>43487</v>
-      </c>
-      <c r="F77" s="9">
-        <v>43528</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E78" s="9">
-        <v>43515</v>
-      </c>
-      <c r="F78" s="9">
-        <v>43536</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E79" s="9">
-        <v>43515</v>
-      </c>
-      <c r="F79" s="9">
-        <v>43536</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="D80" s="19">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="E80" s="9">
-        <v>43536</v>
+        <v>43487</v>
       </c>
       <c r="F80" s="9">
-        <v>43564</v>
+        <v>43528</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -4851,247 +4852,285 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="D81" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E81" s="9">
-        <v>43564</v>
+        <v>43515</v>
       </c>
       <c r="F81" s="9">
-        <v>43591</v>
+        <v>43536</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="C82" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E82" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F82" s="9">
+        <v>43536</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+      <c r="C83" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E83" s="9">
+        <v>43536</v>
+      </c>
+      <c r="F83" s="9">
+        <v>43564</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="C84" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E84" s="9">
+        <v>43564</v>
+      </c>
+      <c r="F84" s="9">
+        <v>43591</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
+    <row r="85" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E86" s="9">
+        <v>43570</v>
+      </c>
+      <c r="F86" s="9">
+        <v>43584</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="9">
+        <v>43588</v>
+      </c>
+      <c r="F87" s="9">
+        <v>43588</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <f t="shared" ref="D88" si="1">F88-E88</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="9">
+        <v>43592</v>
+      </c>
+      <c r="F88" s="9">
+        <v>43592</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="12">
+        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D94" s="22">
+        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22">
+        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Finished")</f>
+        <v>24</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22">
+        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Not Started")</f>
+        <v>2</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22">
+        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="12">
+        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D95" s="22">
+        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22">
+        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Finished")</f>
+        <v>19</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22">
+        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22">
+        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="14">
-        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "In progress")</f>
+        <v>25</v>
+      </c>
+      <c r="C96" s="12">
+        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D96" s="22">
+        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="D97" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Overdue")</f>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22">
+        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Finished")</f>
+        <v>18</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22">
+        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Finished")</f>
-        <v>22</v>
-      </c>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Not Started")</f>
-        <v>2</v>
-      </c>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell", G5:G90, "Critical")</f>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22">
+        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="14">
-        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="21">
-        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21">
-        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Finished")</f>
-        <v>19</v>
-      </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21">
-        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21">
-        <f>COUNTIFS(B5:B90, "Samuel Hussey", G5:G90, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="14">
-        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="21">
-        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Overdue")</f>
-        <v>2</v>
-      </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21">
-        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Finished")</f>
-        <v>18</v>
-      </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21">
-        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21">
-        <f>COUNTIFS(B5:B90, "Zachary Schneiderman", G5:G90, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-    </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="14">
-        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Finished")</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21">
-        <f>COUNTIFS(B5:B90, "James Bell (Team)", G5:G90, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="17">
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="I96:K96"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:K100"/>
     <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:K95"/>
   </mergeCells>
-  <conditionalFormatting sqref="A102:XFD1048576 A101 C101:XFD101 A1:B1 H1:XFD1 G96 I96 L96 O96:XFD100 A96:D100 A2:XFD95">
+  <conditionalFormatting sqref="A98:XFD1048576 A97 C97:XFD97 A1:B1 H1:XFD1 G93 I93 L93 O93:XFD96 A93:D96 A2:XFD92">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5110,7 +5149,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G96 I96 L96 A101:XFD1048576 O96:XFD100 A96:D100 A2:XFD95">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G93 I93 L93 A97:XFD1048576 O93:XFD96 A93:D96 A2:XFD92">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5118,7 +5157,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97:G100">
+  <conditionalFormatting sqref="G94:G96">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5128,24 +5167,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G97,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G94,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G97,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G94,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G97,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G94,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97:G100">
+  <conditionalFormatting sqref="G94:G96">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I100">
+  <conditionalFormatting sqref="I94:I96">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5155,24 +5194,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I97,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I94,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I97,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I94,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I97,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I94,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I100">
+  <conditionalFormatting sqref="I94:I96">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L100">
+  <conditionalFormatting sqref="L94:L96">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5182,21 +5221,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L97,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L94,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L97,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L94,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L97,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L94,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L100">
+  <conditionalFormatting sqref="L94:L96">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5214,7 +5253,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G84</xm:sqref>
+          <xm:sqref>G5:G88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5240,38 +5279,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -5294,13 +5333,13 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:D26" si="0">F6-E6</f>
         <v>24</v>
       </c>
@@ -5310,18 +5349,18 @@
       <c r="F6" s="9">
         <v>43367</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -5331,18 +5370,18 @@
       <c r="F7" s="9">
         <v>43367</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5352,18 +5391,18 @@
       <c r="F8" s="9">
         <v>43357</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -5373,18 +5412,18 @@
       <c r="F9" s="9">
         <v>43388</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="18">
+        <v>43</v>
+      </c>
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5394,18 +5433,18 @@
       <c r="F10" s="9">
         <v>43388</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="18">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5415,18 +5454,18 @@
       <c r="F11" s="9">
         <v>43388</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="18">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5436,18 +5475,18 @@
       <c r="F12" s="9">
         <v>43388</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="18">
+        <v>50</v>
+      </c>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5457,18 +5496,18 @@
       <c r="F13" s="9">
         <v>43388</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="18">
+        <v>53</v>
+      </c>
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5478,18 +5517,18 @@
       <c r="F14" s="9">
         <v>43388</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="18">
+        <v>57</v>
+      </c>
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5499,18 +5538,18 @@
       <c r="F15" s="9">
         <v>43388</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="18">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5520,18 +5559,18 @@
       <c r="F16" s="9">
         <v>43388</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="18">
+        <v>59</v>
+      </c>
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5541,18 +5580,18 @@
       <c r="F17" s="9">
         <v>43388</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="18">
+        <v>60</v>
+      </c>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5562,18 +5601,18 @@
       <c r="F18" s="9">
         <v>43388</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="18">
+        <v>63</v>
+      </c>
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5583,18 +5622,18 @@
       <c r="F19" s="9">
         <v>43388</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="18">
+        <v>72</v>
+      </c>
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5604,18 +5643,18 @@
       <c r="F20" s="9">
         <v>43395</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="18">
+        <v>70</v>
+      </c>
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5625,18 +5664,18 @@
       <c r="F21" s="9">
         <v>43402</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="18">
+        <v>74</v>
+      </c>
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5646,18 +5685,18 @@
       <c r="F22" s="9">
         <v>43401</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="18">
+        <v>81</v>
+      </c>
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5667,18 +5706,18 @@
       <c r="F23" s="9">
         <v>43423</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="18">
+        <v>82</v>
+      </c>
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5688,18 +5727,18 @@
       <c r="F24" s="9">
         <v>43423</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="18">
+        <v>86</v>
+      </c>
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5709,18 +5748,18 @@
       <c r="F25" s="9">
         <v>43423</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="18">
+        <v>89</v>
+      </c>
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5730,7 +5769,7 @@
       <c r="F26" s="9">
         <v>43434</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6565,7 +6604,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="785" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
-            <xm:f>RIGHT('F''18'!B63,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B59,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6575,7 +6614,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="786" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
-            <xm:f>RIGHT('F''18'!B63,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B59,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6585,7 +6624,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="787" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
-            <xm:f>RIGHT('F''18'!B63,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B59,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6598,7 +6637,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="788" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B63)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B59)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6608,7 +6647,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="789" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B63)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B59)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6621,7 +6660,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="790" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
-            <xm:f>'F''18'!$G63="In progress"</xm:f>
+            <xm:f>'F''18'!$G59="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6634,7 +6673,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="1067" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
-            <xm:f>RIGHT('F''18'!B49,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B48,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6644,7 +6683,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="1068" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
-            <xm:f>RIGHT('F''18'!B49,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B48,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6654,7 +6693,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="1069" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
-            <xm:f>RIGHT('F''18'!B49,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B48,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6667,7 +6706,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1072" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B49)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B48)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6677,7 +6716,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="1073" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B49)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B48)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6690,7 +6729,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1075" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
-            <xm:f>'F''18'!$G49="In progress"</xm:f>
+            <xm:f>'F''18'!$G48="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6703,7 +6742,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="1278" operator="endsWith" text="Not Started" id="{14356FD3-5DC3-4C29-B230-BE4DD8436501}">
-            <xm:f>RIGHT('F''18'!B54,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B53,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6713,7 +6752,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="1278" stopIfTrue="1" operator="endsWith" text="In progress" id="{8EE12A44-9951-46F5-A83E-DAC588E353F7}">
-            <xm:f>RIGHT('F''18'!B54,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B53,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6723,7 +6762,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="1278" operator="endsWith" text="Finished" id="{BB9E481F-F30B-43E5-8A94-11084F5233E6}">
-            <xm:f>RIGHT('F''18'!B54,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B53,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6736,7 +6775,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1279" operator="containsText" text="Overdue" id="{CF4A9D57-56E6-4CBA-A62F-104E762665D1}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B54)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B53)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6746,7 +6785,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="1280" operator="containsText" text="Critical" id="{AC132D5B-23D6-4C58-B814-16BA94BE372C}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B54)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B53)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6759,7 +6798,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1281" id="{53AAB7B0-526E-4786-A0A6-2FF9671BB70B}">
-            <xm:f>'F''18'!$G54="In progress"</xm:f>
+            <xm:f>'F''18'!$G53="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6804,38 +6843,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -6858,13 +6897,13 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:D21" si="0">F6-E6</f>
         <v>24</v>
       </c>
@@ -6874,18 +6913,18 @@
       <c r="F6" s="9">
         <v>43367</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -6895,18 +6934,18 @@
       <c r="F7" s="9">
         <v>43367</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6916,18 +6955,18 @@
       <c r="F8" s="9">
         <v>43357</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -6937,18 +6976,18 @@
       <c r="F9" s="9">
         <v>43395</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="18">
+        <v>46</v>
+      </c>
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6958,18 +6997,18 @@
       <c r="F10" s="9">
         <v>43388</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="18">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6979,18 +7018,18 @@
       <c r="F11" s="9">
         <v>43388</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="18">
+        <v>51</v>
+      </c>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7000,18 +7039,18 @@
       <c r="F12" s="9">
         <v>43388</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="18">
+        <v>52</v>
+      </c>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7021,18 +7060,18 @@
       <c r="F13" s="9">
         <v>43388</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="18">
+        <v>56</v>
+      </c>
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7042,18 +7081,18 @@
       <c r="F14" s="9">
         <v>43388</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="18">
+        <v>62</v>
+      </c>
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7063,36 +7102,36 @@
       <c r="F15" s="9">
         <v>43388</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="9">
         <v>43383</v>
       </c>
       <c r="F16" s="9">
         <v>43388</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="18">
+        <v>76</v>
+      </c>
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7102,18 +7141,18 @@
       <c r="F17" s="9">
         <v>43411</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="18">
+        <v>83</v>
+      </c>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7123,18 +7162,18 @@
       <c r="F18" s="9">
         <v>43423</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="18">
+        <v>85</v>
+      </c>
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7144,18 +7183,18 @@
       <c r="F19" s="9">
         <v>43423</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -7165,18 +7204,18 @@
       <c r="F20" s="9">
         <v>43430</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -7186,7 +7225,7 @@
       <c r="F21" s="9">
         <v>43432</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7901,7 +7940,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="2643" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
-            <xm:f>RIGHT('F''18'!B48,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B47,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7911,7 +7950,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2644" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
-            <xm:f>RIGHT('F''18'!B48,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B47,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7921,7 +7960,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2645" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
-            <xm:f>RIGHT('F''18'!B48,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B47,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7934,7 +7973,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2648" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B48)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B47)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7944,7 +7983,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2649" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B48)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B47)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7957,7 +7996,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2651" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
-            <xm:f>'F''18'!$G48="In progress"</xm:f>
+            <xm:f>'F''18'!$G47="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7970,7 +8009,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="2813" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
-            <xm:f>RIGHT('F''18'!B51,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B50,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7980,7 +8019,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2814" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
-            <xm:f>RIGHT('F''18'!B51,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B50,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7990,7 +8029,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2815" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
-            <xm:f>RIGHT('F''18'!B51,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B50,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8003,7 +8042,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2818" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B51)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B50)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8013,7 +8052,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2819" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B51)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B50)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8026,7 +8065,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2821" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
-            <xm:f>'F''18'!$G51="In progress"</xm:f>
+            <xm:f>'F''18'!$G50="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8039,7 +8078,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="2989" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
-            <xm:f>RIGHT('F''18'!B53,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B52,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8049,7 +8088,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2990" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
-            <xm:f>RIGHT('F''18'!B53,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B52,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8059,7 +8098,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="2991" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
-            <xm:f>RIGHT('F''18'!B53,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B52,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8072,7 +8111,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2994" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B53)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B52)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8082,7 +8121,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="2995" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B53)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B52)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8095,7 +8134,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2997" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
-            <xm:f>'F''18'!$G53="In progress"</xm:f>
+            <xm:f>'F''18'!$G52="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8108,7 +8147,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="3171" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
-            <xm:f>RIGHT('F''18'!B55,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B54,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8118,7 +8157,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="3172" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
-            <xm:f>RIGHT('F''18'!B55,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B54,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8128,7 +8167,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="3173" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
-            <xm:f>RIGHT('F''18'!B55,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B54,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8141,7 +8180,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3176" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B55)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B54)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8151,7 +8190,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="3177" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B55)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B54)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8164,7 +8203,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3179" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
-            <xm:f>'F''18'!$G55="In progress"</xm:f>
+            <xm:f>'F''18'!$G54="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8177,7 +8216,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="4302" operator="endsWith" text="Not Started" id="{AF38A09B-6266-4FC9-BBD1-D3C104E24308}">
-            <xm:f>RIGHT('F''18'!B62,LEN("Not Started"))="Not Started"</xm:f>
+            <xm:f>RIGHT('F''18'!B58,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8187,7 +8226,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="4303" stopIfTrue="1" operator="endsWith" text="In progress" id="{C2D8185F-1E54-4AA4-BCAB-EA9627261EEE}">
-            <xm:f>RIGHT('F''18'!B62,LEN("In progress"))="In progress"</xm:f>
+            <xm:f>RIGHT('F''18'!B58,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8197,7 +8236,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="4304" operator="endsWith" text="Finished" id="{5D30C8A7-EFA7-4CCC-B108-347CC97C7214}">
-            <xm:f>RIGHT('F''18'!B62,LEN("Finished"))="Finished"</xm:f>
+            <xm:f>RIGHT('F''18'!B58,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8210,7 +8249,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4305" operator="containsText" text="Overdue" id="{D74AF8CE-89BA-4DE3-8D2B-2C135F645A7E}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B62)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B58)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8220,7 +8259,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4306" operator="containsText" text="Critical" id="{740E01B9-81B3-4B9A-9A00-F0837C7D67A0}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B62)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B58)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8233,7 +8272,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4307" id="{0960186D-EBE6-419F-9C14-AF3940EB46C4}">
-            <xm:f>'F''18'!$G62="In progress"</xm:f>
+            <xm:f>'F''18'!$G58="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8278,38 +8317,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -8332,13 +8371,13 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>F6-E6</f>
         <v>24</v>
       </c>
@@ -8348,18 +8387,18 @@
       <c r="F6" s="9">
         <v>43367</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f t="shared" ref="D7:D21" si="0">F7-E7</f>
         <v>24</v>
       </c>
@@ -8369,18 +8408,18 @@
       <c r="F7" s="9">
         <v>43367</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8390,18 +8429,18 @@
       <c r="F8" s="9">
         <v>43357</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="18">
+        <v>71</v>
+      </c>
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8411,18 +8450,18 @@
       <c r="F9" s="9">
         <v>43395</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8432,18 +8471,18 @@
       <c r="F10" s="9">
         <v>43395</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -8453,18 +8492,18 @@
       <c r="F11" s="9">
         <v>43388</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="18">
+        <v>48</v>
+      </c>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8474,18 +8513,18 @@
       <c r="F12" s="9">
         <v>43388</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="18">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8495,18 +8534,18 @@
       <c r="F13" s="9">
         <v>43388</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="18">
+        <v>54</v>
+      </c>
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8516,18 +8555,18 @@
       <c r="F14" s="9">
         <v>43388</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="18">
+        <v>55</v>
+      </c>
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8537,18 +8576,18 @@
       <c r="F15" s="9">
         <v>43388</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="18">
+        <v>61</v>
+      </c>
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8558,18 +8597,18 @@
       <c r="F16" s="9">
         <v>43388</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="18">
+        <v>67</v>
+      </c>
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8579,18 +8618,18 @@
       <c r="F17" s="9">
         <v>43388</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="18">
+        <v>73</v>
+      </c>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8600,18 +8639,18 @@
       <c r="F18" s="9">
         <v>43388</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="18">
+        <v>66</v>
+      </c>
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8621,18 +8660,18 @@
       <c r="F19" s="9">
         <v>43388</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="18">
+        <v>75</v>
+      </c>
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8642,18 +8681,18 @@
       <c r="F20" s="9">
         <v>43405</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="18">
+        <v>84</v>
+      </c>
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8663,7 +8702,7 @@
       <c r="F21" s="9">
         <v>43423</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9308,8 +9347,8 @@
           <xm:sqref>B18:G19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6608" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
-            <xm:f>RIGHT('F''18'!B47,LEN("Not Started"))="Not Started"</xm:f>
+          <x14:cfRule type="endsWith" priority="6873" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!B51,LEN("Not Started"))="Not Started"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9318,8 +9357,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="6609" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
-            <xm:f>RIGHT('F''18'!B47,LEN("In progress"))="In progress"</xm:f>
+          <x14:cfRule type="endsWith" priority="6874" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!B51,LEN("In progress"))="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9328,8 +9367,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="6610" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
-            <xm:f>RIGHT('F''18'!B47,LEN("Finished"))="Finished"</xm:f>
+          <x14:cfRule type="endsWith" priority="6875" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!B51,LEN("Finished"))="Finished"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9338,11 +9377,80 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6878" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B51)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.499984740745262"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6879" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B51)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6881" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!$G51="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B21:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="7100" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
+            <xm:f>RIGHT('F''18'!#REF!,LEN("Not Started"))="Not Started"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="7101" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
+            <xm:f>RIGHT('F''18'!#REF!,LEN("In progress"))="In progress"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="7102" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
+            <xm:f>RIGHT('F''18'!#REF!,LEN("Finished"))="Finished"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <xm:sqref>B20:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6613" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B47)))</xm:f>
+          <x14:cfRule type="containsText" priority="7103" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
+            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!#REF!)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9351,8 +9459,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6614" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B47)))</xm:f>
+          <x14:cfRule type="containsText" priority="7104" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
+            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!#REF!)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9364,8 +9472,8 @@
           <xm:sqref>B20:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6616" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
-            <xm:f>'F''18'!$G47="In progress"</xm:f>
+          <x14:cfRule type="expression" priority="7105" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
+            <xm:f>'F''18'!#REF!="In progress"</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9375,75 +9483,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B20:G20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6873" operator="endsWith" text="Not Started" id="{FB846D21-C41E-42C0-97EE-49F51C3FCD51}">
-            <xm:f>RIGHT('F''18'!B52,LEN("Not Started"))="Not Started"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="6874" stopIfTrue="1" operator="endsWith" text="In progress" id="{BD0E37DB-E055-4629-8A84-E7EC285CBC4B}">
-            <xm:f>RIGHT('F''18'!B52,LEN("In progress"))="In progress"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="6875" operator="endsWith" text="Finished" id="{D1318625-55E5-49BA-884A-CC18ACDFD234}">
-            <xm:f>RIGHT('F''18'!B52,LEN("Finished"))="Finished"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B21:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6878" operator="containsText" text="Overdue" id="{3DE4D8E7-7F50-41AC-8CAB-B2A8B44311ED}">
-            <xm:f>NOT(ISERROR(SEARCH("Overdue",'F''18'!B52)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6879" operator="containsText" text="Critical" id="{E9EEEE1F-F1C5-429A-A38F-61365B235153}">
-            <xm:f>NOT(ISERROR(SEARCH("Critical",'F''18'!B52)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B21:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6881" id="{E287EB0E-8908-4DF8-84CF-6D8A42BF0228}">
-            <xm:f>'F''18'!$G52="In progress"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B21:G21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C5E26F-5983-477C-9E9D-2832D2A9175B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D81C7B-4E56-44AE-BBA6-1E4729F51A1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -3237,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,7 +4638,7 @@
         <v>43502</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C94" s="12">
         <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "In progress")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="22">
         <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Overdue")</f>
@@ -5027,7 +5027,7 @@
       <c r="F94" s="22"/>
       <c r="G94" s="22">
         <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Finished")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D81C7B-4E56-44AE-BBA6-1E4729F51A1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C525C5-1E81-40D5-A7B9-FC280C21861C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="106">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -687,6 +687,12 @@
   </si>
   <si>
     <t>Bandpass Filters</t>
+  </si>
+  <si>
+    <t>Missing parts, Will be in soon</t>
+  </si>
+  <si>
+    <t>Progress Presentation</t>
   </si>
 </sst>
 </file>
@@ -833,10 +839,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3235,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N97"/>
+  <dimension ref="B1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,14 +3259,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
@@ -3275,7 +3281,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F88 - B2</f>
+        <f>F89 - B2</f>
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3331,7 +3337,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D87" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D88" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="9">
@@ -4555,7 +4561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>30</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
         <v>0</v>
       </c>
@@ -4594,12 +4600,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
         <v>24</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
         <v>24</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="19" t="s">
         <v>30</v>
       </c>
@@ -4659,10 +4665,13 @@
         <v>43509</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
         <v>25</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="19" t="s">
         <v>25</v>
       </c>
@@ -4704,7 +4713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
@@ -4725,7 +4734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>30</v>
       </c>
@@ -4746,7 +4755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>24</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>25</v>
       </c>
@@ -4788,53 +4797,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="19" t="s">
+    <row r="77" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E77" s="9">
+        <v>43509</v>
+      </c>
+      <c r="F77" s="9">
+        <v>43521</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>43521</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>43537</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G78" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="6"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
+    <row r="79" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D79" s="19">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E79" s="9">
-        <v>43487</v>
-      </c>
-      <c r="F79" s="9">
-        <v>43528</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D80" s="19">
         <f t="shared" si="0"/>
@@ -4846,23 +4858,23 @@
       <c r="F80" s="9">
         <v>43528</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" s="19">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E81" s="9">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F81" s="9">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
@@ -4870,7 +4882,7 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C82" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" s="19">
         <f t="shared" si="0"/>
@@ -4888,17 +4900,17 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C83" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D83" s="19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E83" s="9">
+        <v>43515</v>
+      </c>
+      <c r="F83" s="9">
         <v>43536</v>
-      </c>
-      <c r="F83" s="9">
-        <v>43564</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>11</v>
@@ -4906,61 +4918,61 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C84" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="19">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E84" s="9">
+        <v>43536</v>
+      </c>
+      <c r="F84" s="9">
         <v>43564</v>
-      </c>
-      <c r="F84" s="9">
-        <v>43591</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="6"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E85" s="9">
+        <v>43564</v>
+      </c>
+      <c r="F85" s="9">
+        <v>43591</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="6"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D87" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>43570</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>43584</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="9">
-        <v>43588</v>
-      </c>
-      <c r="F87" s="9">
-        <v>43588</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>11</v>
@@ -4968,169 +4980,187 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D88" s="19">
-        <f t="shared" ref="D88" si="1">F88-E88</f>
-        <v>0</v>
-      </c>
       <c r="E88" s="9">
-        <v>43592</v>
+        <v>43588</v>
       </c>
       <c r="F88" s="9">
-        <v>43592</v>
+        <v>43588</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="19">
+        <f t="shared" ref="D89" si="1">F89-E89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="9">
+        <v>43592</v>
+      </c>
+      <c r="F89" s="9">
+        <v>43592</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="12">
-        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D94" s="22">
-        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22">
-        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Finished")</f>
-        <v>25</v>
-      </c>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22">
-        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Not Started")</f>
-        <v>2</v>
-      </c>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22">
-        <f>COUNTIFS(B5:B88, "James Bell", G5:G88, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C95" s="12">
-        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "In progress")</f>
+        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D95" s="21">
+        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21">
+        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Finished")</f>
+        <v>25</v>
+      </c>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21">
+        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="D95" s="22">
-        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Overdue")</f>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21">
+        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22">
-        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Finished")</f>
-        <v>19</v>
-      </c>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22">
-        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22">
-        <f>COUNTIFS(B5:B88, "Samuel Hussey", G5:G88, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="12">
+        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "In progress")</f>
+        <v>1</v>
+      </c>
+      <c r="D96" s="21">
+        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21">
+        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Finished")</f>
+        <v>19</v>
+      </c>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21">
+        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21">
+        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="12">
-        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "In progress")</f>
+      <c r="C97" s="12">
+        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "In progress")</f>
         <v>3</v>
       </c>
-      <c r="D96" s="22">
-        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Overdue")</f>
+      <c r="D97" s="21">
+        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22">
-        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Finished")</f>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21">
+        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Finished")</f>
         <v>18</v>
       </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22">
-        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Not Started")</f>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21">
+        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22">
-        <f>COUNTIFS(B5:B88, "Zachary Schneiderman", G5:G88, "Critical")</f>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21">
+        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="20"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:K94"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:K94"/>
     <mergeCell ref="L94:N94"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:K93"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
   </mergeCells>
-  <conditionalFormatting sqref="A98:XFD1048576 A97 C97:XFD97 A1:B1 H1:XFD1 G93 I93 L93 O93:XFD96 A93:D96 A2:XFD92">
+  <conditionalFormatting sqref="A99:XFD1048576 A98 C98:XFD98 A1:B1 H1:XFD1 G94 I94 L94 O94:XFD97 A94:D97 A2:XFD93">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5149,7 +5179,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G93 I93 L93 A97:XFD1048576 O93:XFD96 A93:D96 A2:XFD92">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G94 I94 L94 A98:XFD1048576 O94:XFD97 A94:D97 A2:XFD93">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5157,7 +5187,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G96">
+  <conditionalFormatting sqref="G95:G97">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5167,24 +5197,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G94,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G95,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G94,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G95,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G94,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G95,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:G96">
+  <conditionalFormatting sqref="G95:G97">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G95)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I96">
+  <conditionalFormatting sqref="I95:I97">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5194,24 +5224,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I94,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I95,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I94,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I95,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I94,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I95,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I96">
+  <conditionalFormatting sqref="I95:I97">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I95)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L94:L96">
+  <conditionalFormatting sqref="L95:L97">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5221,21 +5251,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L94,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L95,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L94,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L95,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L94,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L95,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L94:L96">
+  <conditionalFormatting sqref="L95:L97">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L95)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5253,7 +5283,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G88</xm:sqref>
+          <xm:sqref>G5:G89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5279,14 +5309,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -6843,14 +6873,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8317,14 +8347,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C525C5-1E81-40D5-A7B9-FC280C21861C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8DF30-5014-4940-BE65-F7B69582D7D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3990" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -794,55 +794,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3241,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N98"/>
+  <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,20 +3214,20 @@
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="7" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
@@ -3298,10 +3259,10 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3319,10 +3280,10 @@
         <f>F5-E5</f>
         <v>24</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>43343</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <v>43367</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3340,10 +3301,10 @@
         <f t="shared" ref="D6:D88" si="0">F6-E6</f>
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>43343</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3361,10 +3322,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>43343</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3382,10 +3343,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>43343</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <v>43367</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3403,10 +3364,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <v>43343</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="3">
         <v>43367</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3424,10 +3385,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <v>43343</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="3">
         <v>43367</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3445,10 +3406,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <v>43343</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="3">
         <v>43357</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -3466,10 +3427,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>43343</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="3">
         <v>43357</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3487,10 +3448,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <v>43343</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="3">
         <v>43357</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3508,10 +3469,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <v>43355</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="3">
         <v>43395</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3519,7 +3480,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3529,10 +3490,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <v>43355</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="3">
         <v>43395</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3550,10 +3511,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="3">
         <v>43355</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="3">
         <v>43395</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3571,10 +3532,10 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <v>43355</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="3">
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3592,10 +3553,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <v>43374</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="3">
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3613,10 +3574,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <v>43374</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="3">
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3634,10 +3595,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>43374</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>43388</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3655,10 +3616,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <v>43374</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <v>43388</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3676,10 +3637,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="3">
         <v>43374</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="3">
         <v>43388</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3697,10 +3658,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="3">
         <v>43374</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="3">
         <v>43388</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3718,10 +3679,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="3">
         <v>43374</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="3">
         <v>43388</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3739,10 +3700,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="3">
         <v>43374</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="3">
         <v>43388</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3760,10 +3721,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="3">
         <v>43374</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="3">
         <v>43388</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3781,10 +3742,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="3">
         <v>43374</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="3">
         <v>43388</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3802,10 +3763,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="3">
         <v>43374</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="3">
         <v>43388</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3823,10 +3784,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="3">
         <v>43374</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="3">
         <v>43388</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3844,10 +3805,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="3">
         <v>43374</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="3">
         <v>43388</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3865,10 +3826,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="3">
         <v>43374</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="3">
         <v>43388</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3886,10 +3847,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="3">
         <v>43374</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="3">
         <v>43388</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3907,10 +3868,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="3">
         <v>43374</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="3">
         <v>43388</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3928,10 +3889,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="3">
         <v>43374</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="3">
         <v>43388</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3949,10 +3910,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="3">
         <v>43374</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="3">
         <v>43388</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3970,10 +3931,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="3">
         <v>43374</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="3">
         <v>43388</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3991,10 +3952,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="3">
         <v>43374</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="3">
         <v>43388</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -4012,10 +3973,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="3">
         <v>43374</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="3">
         <v>43388</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -4033,10 +3994,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="3">
         <v>43383</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="3">
         <v>43388</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -4054,10 +4015,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="3">
         <v>43383</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="3">
         <v>43395</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -4071,10 +4032,10 @@
       <c r="C41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="3">
         <v>43383</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="3">
         <v>43388</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -4092,10 +4053,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="3">
         <v>43383</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="3">
         <v>43388</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4113,10 +4074,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="3">
         <v>43383</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="3">
         <v>43388</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -4134,13 +4095,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="3">
         <v>43388</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="3">
         <v>43402</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4155,13 +4116,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="3">
         <v>43397</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="3">
         <v>43401</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4172,143 +4133,143 @@
       <c r="C46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="3">
         <v>43397</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="3">
         <v>43405</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+      <c r="G46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="3">
         <v>43408</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="3">
         <v>43423</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+      <c r="G47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="3">
         <v>43408</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="3">
         <v>43423</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+      <c r="G48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="3">
         <v>43408</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="3">
         <v>43423</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+      <c r="G49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="3">
         <v>43408</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="3">
         <v>43423</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="G50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="3">
         <v>43408</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="3">
         <v>43423</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
+      <c r="G51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="3">
         <v>43408</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="3">
         <v>43423</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4319,98 +4280,98 @@
       <c r="C53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="3">
         <v>43409</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="3">
         <v>43430</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="3">
         <v>43411</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="3">
         <v>43441</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="10" t="s">
+      <c r="G54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="3">
         <v>43425</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="3">
         <v>43429</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="3">
         <v>43409</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="3">
         <v>43430</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="3">
         <v>43416</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="3">
         <v>43432</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4421,164 +4382,164 @@
       <c r="C58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="3">
         <v>43423</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="3">
         <v>43434</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="3">
         <v>43423</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="3">
         <v>43434</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="G59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="3">
         <v>43423</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="3">
         <v>43434</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="G60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="3">
         <v>43423</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="3">
         <v>43434</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
+      <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="3">
         <v>43423</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="3">
         <v>43434</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="G62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="3">
         <v>43423</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="3">
         <v>43437</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+      <c r="G63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="3">
         <v>43423</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="3">
         <v>43437</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+      <c r="G64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="3">
         <v>43423</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="3">
         <v>43437</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4586,279 +4547,279 @@
       <c r="C66" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="3">
         <v>43441</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="3">
         <v>43441</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="s">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="3">
         <v>43493</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="3">
         <v>43500</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
+      <c r="G68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="3">
         <v>43493</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="3">
         <v>43502</v>
       </c>
-      <c r="G69" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19" t="s">
+      <c r="G69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="3">
         <v>43493</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="3">
         <v>43509</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="3">
         <v>43500</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="3">
         <v>43516</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="3">
         <v>43493</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="3">
         <v>43544</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="3">
         <v>43493</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="3">
         <v>43516</v>
       </c>
-      <c r="G73" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="19" t="s">
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="3">
         <v>43500</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="3">
         <v>43516</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19" t="s">
+      <c r="G74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="3">
         <v>43500</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="3">
         <v>43516</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19" t="s">
+      <c r="G75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="3">
         <v>43500</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="3">
         <v>43516</v>
       </c>
-      <c r="G76" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
+      <c r="G76" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="3">
         <v>43509</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="3">
         <v>43521</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="3">
         <v>43521</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="3">
         <v>43537</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="3">
         <v>43487</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="3">
         <v>43528</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4866,14 +4827,14 @@
       <c r="C81" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="3">
         <v>43487</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="3">
         <v>43528</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4884,14 +4845,14 @@
       <c r="C82" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="3">
         <v>43515</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="3">
         <v>43536</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4902,14 +4863,14 @@
       <c r="C83" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="3">
         <v>43515</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="3">
         <v>43536</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -4920,14 +4881,14 @@
       <c r="C84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="3">
         <v>43536</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="3">
         <v>43564</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4938,24 +4899,24 @@
       <c r="C85" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="3">
         <v>43564</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="3">
         <v>43591</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -4964,14 +4925,14 @@
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="3">
         <v>43570</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="3">
         <v>43584</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4982,14 +4943,14 @@
       <c r="C88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="3">
         <v>43588</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="3">
         <v>43588</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -5000,14 +4961,14 @@
       <c r="C89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="1">
         <f t="shared" ref="D89" si="1">F89-E89</f>
         <v>0</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="3">
         <v>43592</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="3">
         <v>43592</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -5021,127 +4982,134 @@
       <c r="C94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21" t="s">
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21" t="s">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="7">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D95" s="21">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Finished")</f>
-        <v>25</v>
-      </c>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21">
+        <v>26</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Not Started")</f>
         <v>2</v>
       </c>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="7">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="D96" s="9">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Finished")</f>
         <v>19</v>
       </c>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="7">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D97" s="21">
+        <v>1</v>
+      </c>
+      <c r="D97" s="9">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Finished")</f>
-        <v>18</v>
-      </c>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21">
+        <v>19</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="G94:H94"/>
@@ -5149,16 +5117,6 @@
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
   </mergeCells>
   <conditionalFormatting sqref="A99:XFD1048576 A98 C98:XFD98 A1:B1 H1:XFD1 G94 I94 L94 O94:XFD97 A94:D97 A2:XFD93">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
@@ -5309,38 +5267,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -5352,10 +5310,10 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -5363,443 +5321,443 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="1">
         <f t="shared" ref="D6:D26" si="0">F6-E6</f>
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>43343</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <v>43367</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>43343</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>43367</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>43343</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <v>43357</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <v>43355</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="3">
         <v>43388</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <v>43374</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="3">
         <v>43388</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <v>43374</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="3">
         <v>43388</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>43374</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="3">
         <v>43388</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <v>43374</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="3">
         <v>43388</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <v>43374</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="3">
         <v>43388</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <v>43374</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="3">
         <v>43388</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="3">
         <v>43374</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="3">
         <v>43388</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <v>43374</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="3">
         <v>43388</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <v>43374</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="3">
         <v>43388</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <v>43374</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="3">
         <v>43388</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>43383</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>43395</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <v>43388</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <v>43402</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="3">
         <v>43397</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="3">
         <v>43401</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="3">
         <v>43408</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="3">
         <v>43423</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="3">
         <v>43408</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="3">
         <v>43423</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="3">
         <v>43408</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="3">
         <v>43423</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="3">
         <v>43423</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="3">
         <v>43434</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6873,38 +6831,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -6916,10 +6874,10 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -6927,335 +6885,335 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="1">
         <f t="shared" ref="D6:D21" si="0">F6-E6</f>
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>43343</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <v>43367</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>43343</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>43367</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>43343</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <v>43357</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <v>43355</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="3">
         <v>43395</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <v>43374</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="3">
         <v>43388</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <v>43374</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="3">
         <v>43388</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>43374</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="3">
         <v>43388</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <v>43374</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="3">
         <v>43388</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <v>43374</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="3">
         <v>43388</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <v>43374</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="3">
         <v>43388</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="9">
+      <c r="D16" s="1"/>
+      <c r="E16" s="3">
         <v>43383</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="3">
         <v>43388</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <v>43397</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="3">
         <v>43411</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <v>43408</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="3">
         <v>43423</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <v>43408</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="3">
         <v>43423</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>43409</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>43430</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <v>43416</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <v>43432</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8347,38 +8305,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -8390,10 +8348,10 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -8401,338 +8359,338 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="1">
         <f>F6-E6</f>
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>43343</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <v>43367</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="1">
         <f t="shared" ref="D7:D21" si="0">F7-E7</f>
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>43343</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>43367</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>43343</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="3">
         <v>43357</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <v>43355</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="3">
         <v>43395</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <v>43355</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="3">
         <v>43395</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <v>43355</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="3">
         <v>43388</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>43374</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="3">
         <v>43388</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <v>43374</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="3">
         <v>43388</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <v>43374</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="3">
         <v>43388</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <v>43374</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="3">
         <v>43388</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="3">
         <v>43374</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="3">
         <v>43388</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <v>43383</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="3">
         <v>43388</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <v>43383</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="3">
         <v>43388</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <v>43383</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="3">
         <v>43388</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>43397</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="3">
         <v>43405</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <v>43408</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <v>43423</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8DF30-5014-4940-BE65-F7B69582D7D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C318F0-93D2-4F38-8AB2-6C4E1CD78961}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3990" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="105">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>Bandpass Filters</t>
-  </si>
-  <si>
-    <t>Missing parts, Will be in soon</t>
   </si>
   <si>
     <t>Progress Presentation</t>
@@ -800,10 +797,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3204,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,21 +3217,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43500</v>
+        <v>43521</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3243,7 +3240,7 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>F89 - B2</f>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -4522,7 +4519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>30</v>
       </c>
@@ -4543,7 +4540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
         <v>0</v>
       </c>
@@ -4561,12 +4558,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>30</v>
       </c>
@@ -4626,13 +4623,10 @@
         <v>43509</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
@@ -4650,10 +4644,10 @@
         <v>43516</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
@@ -4674,7 +4668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
@@ -4695,7 +4689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>30</v>
       </c>
@@ -4713,10 +4707,10 @@
         <v>43516</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>24</v>
       </c>
@@ -4737,7 +4731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
@@ -4758,12 +4752,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="0"/>
@@ -4779,7 +4773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
@@ -4797,15 +4791,15 @@
         <v>43537</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
         <v>37</v>
       </c>
@@ -4982,25 +4976,25 @@
       <c r="C94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9" t="s">
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9" t="s">
+      <c r="H94" s="8"/>
+      <c r="I94" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9" t="s">
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
@@ -5008,31 +5002,31 @@
       </c>
       <c r="C95" s="7">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+      <c r="D95" s="8">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9">
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Finished")</f>
         <v>26</v>
       </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9">
+      <c r="H95" s="8"/>
+      <c r="I95" s="8">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Not Started")</f>
-        <v>2</v>
-      </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9">
+        <v>1</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8">
         <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Critical")</f>
         <v>1</v>
       </c>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
@@ -5042,29 +5036,29 @@
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Finished")</f>
-        <v>19</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9">
+        <v>21</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9">
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8">
         <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Critical")</f>
-        <v>1</v>
-      </c>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -5074,42 +5068,32 @@
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "In progress")</f>
         <v>1</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="8">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9">
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Finished")</f>
-        <v>19</v>
-      </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9">
+        <v>20</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9">
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8">
         <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Critical")</f>
-        <v>1</v>
-      </c>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="G94:H94"/>
@@ -5117,6 +5101,16 @@
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="I96:K96"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
   </mergeCells>
   <conditionalFormatting sqref="A99:XFD1048576 A98 C98:XFD98 A1:B1 H1:XFD1 G94 I94 L94 O94:XFD97 A94:D97 A2:XFD93">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
@@ -5267,14 +5261,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -6831,14 +6825,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8305,14 +8299,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C318F0-93D2-4F38-8AB2-6C4E1CD78961}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415CE4C-60FB-4281-9822-D5D8A4416267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10080" yWindow="120" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="108">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -485,9 +484,6 @@
     <t>Implement RF Receive Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Add licensing selection to radio </t>
-  </si>
-  <si>
     <t xml:space="preserve">Raspberry Pi implementation </t>
   </si>
   <si>
@@ -690,6 +686,18 @@
   </si>
   <si>
     <t>Progress Presentation</t>
+  </si>
+  <si>
+    <t>Add licensing selection to radio code</t>
+  </si>
+  <si>
+    <t>Relays for Transmit Receive control</t>
+  </si>
+  <si>
+    <t>Band Selection in Code</t>
+  </si>
+  <si>
+    <t>Audio Pass through test</t>
   </si>
 </sst>
 </file>
@@ -797,10 +805,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3199,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N97"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,21 +3225,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43521</v>
+        <v>43530</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3239,8 +3247,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F89 - B2</f>
-        <v>71</v>
+        <f>F94 - B2</f>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3295,7 +3303,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D88" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D93" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -3481,7 +3489,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -3544,7 +3552,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -3565,7 +3573,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -3586,7 +3594,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -3607,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -3628,7 +3636,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -3649,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -3670,7 +3678,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -3691,7 +3699,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -3712,7 +3720,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -3733,7 +3741,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -3754,7 +3762,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -3775,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -3796,7 +3804,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3817,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3838,7 +3846,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3859,7 +3867,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3880,7 +3888,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3901,7 +3909,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3922,7 +3930,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -3943,7 +3951,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -3964,7 +3972,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -3985,7 +3993,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -4006,7 +4014,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -4027,7 +4035,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3">
         <v>43383</v>
@@ -4044,7 +4052,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -4065,7 +4073,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -4086,7 +4094,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -4107,7 +4115,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
@@ -4128,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
@@ -4149,7 +4157,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
@@ -4170,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
@@ -4191,7 +4199,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
@@ -4212,7 +4220,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
@@ -4233,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
@@ -4254,7 +4262,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
@@ -4296,7 +4304,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
@@ -4377,7 +4385,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
@@ -4398,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
@@ -4419,7 +4427,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
@@ -4440,7 +4448,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
@@ -4461,7 +4469,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
@@ -4482,7 +4490,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
@@ -4503,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
@@ -4524,7 +4532,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
@@ -4559,26 +4567,42 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="6"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
+        <v>43493</v>
+      </c>
+      <c r="F67" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3">
         <v>43493</v>
       </c>
       <c r="F68" s="3">
-        <v>43500</v>
+        <v>43502</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>31</v>
@@ -4586,20 +4610,20 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E69" s="3">
         <v>43493</v>
       </c>
       <c r="F69" s="3">
-        <v>43502</v>
+        <v>43509</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>31</v>
@@ -4607,91 +4631,91 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E70" s="3">
-        <v>43493</v>
+        <v>43500</v>
       </c>
       <c r="F70" s="3">
-        <v>43509</v>
+        <v>43516</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E71" s="3">
-        <v>43500</v>
+        <v>43493</v>
       </c>
       <c r="F71" s="3">
-        <v>43516</v>
+        <v>43544</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E72" s="3">
         <v>43493</v>
       </c>
       <c r="F72" s="3">
-        <v>43544</v>
+        <v>43516</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E73" s="3">
-        <v>43493</v>
+        <v>43500</v>
       </c>
       <c r="F73" s="3">
         <v>43516</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>100</v>
@@ -4712,7 +4736,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>101</v>
@@ -4733,20 +4757,20 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3">
-        <v>43500</v>
+        <v>43509</v>
       </c>
       <c r="F76" s="3">
-        <v>43516</v>
+        <v>43521</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>31</v>
@@ -4754,365 +4778,414 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E77" s="3">
-        <v>43509</v>
+        <v>43521</v>
       </c>
       <c r="F77" s="3">
-        <v>43521</v>
+        <v>43537</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E78" s="3">
         <v>43521</v>
       </c>
       <c r="F78" s="3">
+        <v>43532</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="3">
+        <v>43521</v>
+      </c>
+      <c r="F79" s="3">
+        <v>43532</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="3">
+        <v>43521</v>
+      </c>
+      <c r="F80" s="3">
         <v>43537</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="6"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="1">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="6"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E85" s="3">
         <v>43487</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F85" s="3">
         <v>43528</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E81" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F81" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E82" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F82" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C83" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E83" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F83" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C84" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E84" s="3">
-        <v>43536</v>
-      </c>
-      <c r="F84" s="3">
-        <v>43564</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C85" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E85" s="3">
-        <v>43564</v>
-      </c>
-      <c r="F85" s="3">
-        <v>43591</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C86" s="6"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43487</v>
+      </c>
+      <c r="F86" s="3">
+        <v>43528</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E87" s="3">
-        <v>43570</v>
+        <v>43515</v>
       </c>
       <c r="F87" s="3">
-        <v>43584</v>
+        <v>43536</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>5</v>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E88" s="3">
-        <v>43588</v>
+        <v>43515</v>
       </c>
       <c r="F88" s="3">
-        <v>43588</v>
+        <v>43536</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C89" s="2" t="s">
-        <v>0</v>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ref="D89" si="1">F89-E89</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="E89" s="3">
-        <v>43592</v>
+        <v>43536</v>
       </c>
       <c r="F89" s="3">
-        <v>43592</v>
+        <v>43564</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E90" s="3">
+        <v>43564</v>
+      </c>
+      <c r="F90" s="3">
+        <v>43591</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="6"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43570</v>
+      </c>
+      <c r="F92" s="3">
+        <v>43584</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43588</v>
+      </c>
+      <c r="F93" s="3">
+        <v>43588</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" ref="D94" si="1">F94-E94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>43592</v>
+      </c>
+      <c r="F94" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="D99" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8" t="s">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="7">
-        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D95" s="8">
-        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Overdue")</f>
+      <c r="C100" s="7">
+        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "In progress")</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="9">
+        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8">
-        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Finished")</f>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9">
+        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Finished")</f>
         <v>26</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8">
-        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Not Started")</f>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9">
+        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Not Started")</f>
         <v>1</v>
       </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8">
-        <f>COUNTIFS(B5:B89, "James Bell", G5:G89, "Critical")</f>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9">
+        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Critical")</f>
         <v>1</v>
       </c>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="7">
-        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "In progress")</f>
+      <c r="C101" s="7">
+        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="D96" s="8">
-        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Overdue")</f>
+      <c r="D101" s="9">
+        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8">
-        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Finished")</f>
-        <v>21</v>
-      </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8">
-        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Not Started")</f>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9">
+        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Finished")</f>
+        <v>23</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9">
+        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8">
-        <f>COUNTIFS(B5:B89, "Samuel Hussey", G5:G89, "Critical")</f>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9">
+        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="7">
-        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "In progress")</f>
+      <c r="C102" s="7">
+        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "In progress")</f>
         <v>1</v>
       </c>
-      <c r="D97" s="8">
-        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Overdue")</f>
+      <c r="D102" s="9">
+        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8">
-        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Finished")</f>
-        <v>20</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8">
-        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Not Started")</f>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9">
+        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Finished")</f>
+        <v>22</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9">
+        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8">
-        <f>COUNTIFS(B5:B89, "Zachary Schneiderman", G5:G89, "Critical")</f>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9">
+        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L100:N100"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:K101"/>
   </mergeCells>
-  <conditionalFormatting sqref="A99:XFD1048576 A98 C98:XFD98 A1:B1 H1:XFD1 G94 I94 L94 O94:XFD97 A94:D97 A2:XFD93">
+  <conditionalFormatting sqref="A104:XFD1048576 A103 C103:XFD103 A1:B1 H1:XFD1 G99 I99 L99 O99:XFD102 A99:D102 A2:XFD98">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5131,7 +5204,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G94 I94 L94 A98:XFD1048576 O94:XFD97 A94:D97 A2:XFD93">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G99 I99 L99 A103:XFD1048576 O99:XFD102 A99:D102 A2:XFD98">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5139,7 +5212,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G97">
+  <conditionalFormatting sqref="G100:G102">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5149,24 +5222,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G95,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G100,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G95,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G100,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G95,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G100,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G97">
+  <conditionalFormatting sqref="G100:G102">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G100)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I97">
+  <conditionalFormatting sqref="I100:I102">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5176,24 +5249,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I95,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I100,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I95,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I100,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I95,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I100,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I97">
+  <conditionalFormatting sqref="I100:I102">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I100)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L95:L97">
+  <conditionalFormatting sqref="L100:L102">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5203,21 +5276,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L95,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L100,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L95,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L100,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L95,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L100,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L95:L97">
+  <conditionalFormatting sqref="L100:L102">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L100)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5235,7 +5308,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G89</xm:sqref>
+          <xm:sqref>G5:G94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5261,14 +5334,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -5403,7 +5476,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -5424,7 +5497,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -5445,7 +5518,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -5466,7 +5539,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -5487,7 +5560,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -5508,7 +5581,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -5529,7 +5602,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -5550,7 +5623,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -5571,7 +5644,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -5592,7 +5665,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -5613,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -5634,7 +5707,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -5655,7 +5728,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -5676,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -5697,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -5718,7 +5791,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -5739,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -6825,14 +6898,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -6967,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -6988,7 +7061,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -7009,7 +7082,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -7030,7 +7103,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -7051,7 +7124,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -7072,7 +7145,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -7093,7 +7166,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3">
@@ -7111,7 +7184,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -7132,7 +7205,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -7153,7 +7226,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -8299,14 +8372,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8420,7 +8493,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -8483,7 +8556,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -8504,7 +8577,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -8525,7 +8598,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -8546,7 +8619,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -8567,7 +8640,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -8588,7 +8661,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -8609,7 +8682,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -8630,7 +8703,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -8651,7 +8724,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -8672,7 +8745,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415CE4C-60FB-4281-9822-D5D8A4416267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC9033-BCDA-460F-891C-70F6B70C4349}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10080" yWindow="120" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -698,6 +699,33 @@
   </si>
   <si>
     <t>Audio Pass through test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Relays and splitter/combiner to curcuit. </t>
+  </si>
+  <si>
+    <t>Make testing signals for receive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test mixers for functionality </t>
+  </si>
+  <si>
+    <t>find/rectify 14Hz offset in system</t>
+  </si>
+  <si>
+    <t>add none burned out teensy to system</t>
+  </si>
+  <si>
+    <t>total tasks in system</t>
+  </si>
+  <si>
+    <t>Task completed</t>
+  </si>
+  <si>
+    <t>Add microphone to audio sheild</t>
+  </si>
+  <si>
+    <t>Get transmit functionality in code</t>
   </si>
 </sst>
 </file>
@@ -3207,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N102"/>
+  <dimension ref="B1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,7 +3267,7 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43530</v>
+        <v>43551</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3247,8 +3275,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F94 - B2</f>
-        <v>62</v>
+        <f>F98 - B2</f>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3303,7 +3331,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D93" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D97" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -4689,7 +4717,7 @@
         <v>43516</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -4710,7 +4738,7 @@
         <v>43516</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -4825,6 +4853,10 @@
       <c r="C79" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="D79" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="E79" s="3">
         <v>43521</v>
       </c>
@@ -4842,6 +4874,10 @@
       <c r="C80" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="D80" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="E80" s="3">
         <v>43521</v>
       </c>
@@ -4853,110 +4889,142 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="6"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="B81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43534</v>
+      </c>
+      <c r="F81" s="3">
+        <v>43556</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="6"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E82" s="3">
+        <v>43544</v>
+      </c>
+      <c r="F82" s="3">
+        <v>43556</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="6"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43551</v>
+      </c>
+      <c r="F83" s="3">
+        <v>43556</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="6"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E84" s="3">
+        <v>43551</v>
+      </c>
+      <c r="F84" s="3">
+        <v>43556</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C85" s="6" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E85" s="3">
-        <v>43487</v>
+        <v>43549</v>
       </c>
       <c r="F85" s="3">
-        <v>43528</v>
+        <v>43556</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C86" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E86" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F86" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C87" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E87" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F87" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E88" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F88" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C89" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E89" s="3">
-        <v>43536</v>
+        <v>43487</v>
       </c>
       <c r="F89" s="3">
-        <v>43564</v>
+        <v>43528</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
@@ -4964,228 +5032,318 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C90" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D90" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
       <c r="E90" s="3">
-        <v>43564</v>
+        <v>43487</v>
       </c>
       <c r="F90" s="3">
-        <v>43591</v>
+        <v>43528</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="6"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="C91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F91" s="3">
+        <v>43536</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
+      <c r="C92" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E92" s="3">
-        <v>43570</v>
+        <v>43515</v>
       </c>
       <c r="F92" s="3">
-        <v>43584</v>
+        <v>43536</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>5</v>
+      <c r="C93" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E93" s="3">
-        <v>43588</v>
+        <v>43536</v>
       </c>
       <c r="F93" s="3">
-        <v>43588</v>
+        <v>43564</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="2" t="s">
-        <v>0</v>
+      <c r="C94" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" ref="D94" si="1">F94-E94</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="E94" s="3">
-        <v>43592</v>
+        <v>43564</v>
       </c>
       <c r="F94" s="3">
-        <v>43592</v>
+        <v>43591</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="6"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E96" s="3">
+        <v>43570</v>
+      </c>
+      <c r="F96" s="3">
+        <v>43584</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>43588</v>
+      </c>
+      <c r="F97" s="3">
+        <v>43588</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" ref="D98" si="1">F98-E98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43592</v>
+      </c>
+      <c r="F98" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D103" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9" t="s">
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9" t="s">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="7">
-        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "In progress")</f>
+      <c r="C104" s="7">
+        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D104" s="9">
+        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9">
+        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Finished")</f>
+        <v>28</v>
+      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9">
+        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Not Started")</f>
         <v>1</v>
       </c>
-      <c r="D100" s="9">
-        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Overdue")</f>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9">
+        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9">
-        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Finished")</f>
-        <v>26</v>
-      </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9">
-        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Not Started")</f>
-        <v>1</v>
-      </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9">
-        <f>COUNTIFS(B5:B94, "James Bell", G5:G94, "Critical")</f>
-        <v>1</v>
-      </c>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="7">
-        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "In progress")</f>
+      <c r="C105" s="7">
+        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "In progress")</f>
+        <v>3</v>
+      </c>
+      <c r="D105" s="9">
+        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="D101" s="9">
-        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Overdue")</f>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9">
+        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Finished")</f>
+        <v>22</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9">
+        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9">
-        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Finished")</f>
-        <v>23</v>
-      </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9">
-        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Not Started")</f>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9">
+        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9">
-        <f>COUNTIFS(B5:B94, "Samuel Hussey", G5:G94, "Critical")</f>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="7">
+        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D106" s="9">
+        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="7">
-        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D102" s="9">
-        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Overdue")</f>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9">
+        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Finished")</f>
+        <v>22</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9">
+        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9">
-        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Finished")</f>
-        <v>22</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9">
-        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Not Started")</f>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9">
+        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9">
-        <f>COUNTIFS(B5:B94, "Zachary Schneiderman", G5:G94, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="1">
+        <f>C104+C105+C106+D104+D105+D106+G104+G105+G106+I104+I105+I106+L104+L105+L106</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="1">
+        <f>G104+G105+G106</f>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="L104:N104"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:K105"/>
   </mergeCells>
-  <conditionalFormatting sqref="A104:XFD1048576 A103 C103:XFD103 A1:B1 H1:XFD1 G99 I99 L99 O99:XFD102 A99:D102 A2:XFD98">
+  <conditionalFormatting sqref="A108:XFD1048576 A107 C107:XFD107 A1:B1 H1:XFD1 G103 I103 L103 O103:XFD106 A103:D106 A2:XFD102">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5204,7 +5362,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G99 I99 L99 A103:XFD1048576 O99:XFD102 A99:D102 A2:XFD98">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G103 I103 L103 A107:XFD1048576 O103:XFD106 A103:D106 A2:XFD102">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5212,7 +5370,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G102">
+  <conditionalFormatting sqref="G104:G106">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5222,24 +5380,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G100,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G104,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G100,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G104,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G100,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G104,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G102">
+  <conditionalFormatting sqref="G104:G106">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G104)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:I102">
+  <conditionalFormatting sqref="I104:I106">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5249,24 +5407,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I100,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I104,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I100,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I104,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I100,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I104,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:I102">
+  <conditionalFormatting sqref="I104:I106">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I104)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L100:L102">
+  <conditionalFormatting sqref="L104:L106">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5276,21 +5434,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L100,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L104,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L100,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L104,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L100,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L104,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L100:L102">
+  <conditionalFormatting sqref="L104:L106">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L104)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5308,7 +5466,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G94</xm:sqref>
+          <xm:sqref>G5:G98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC9033-BCDA-460F-891C-70F6B70C4349}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48691E42-5F2A-48F0-8E58-052AE914CB52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="120">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -726,6 +726,15 @@
   </si>
   <si>
     <t>Get transmit functionality in code</t>
+  </si>
+  <si>
+    <t>Identify and correct toroid power problem</t>
+  </si>
+  <si>
+    <t>Make Final Design Review Power Point</t>
+  </si>
+  <si>
+    <t>Collect data for Final Design review</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3235,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N110"/>
+  <dimension ref="B1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,21 +3262,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43551</v>
+        <v>43566</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3275,8 +3284,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F98 - B2</f>
-        <v>41</v>
+        <f>F103 - B2</f>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3331,7 +3340,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D97" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D102" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -4738,7 +4747,7 @@
         <v>43516</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -4885,7 +4894,7 @@
         <v>43537</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -4948,7 +4957,7 @@
         <v>43556</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -4990,360 +4999,433 @@
         <v>43556</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F86" s="3">
+        <v>43572</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C87" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F87" s="3">
+        <v>43569</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="6"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E88" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F88" s="3">
+        <v>43569</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E89" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F89" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C89" s="6"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E90" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F90" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C90" s="6"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C91" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E91" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F91" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C92" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E92" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F92" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E93" s="3">
-        <v>43536</v>
-      </c>
-      <c r="F93" s="3">
-        <v>43564</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C93" s="6"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D94" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
       <c r="E94" s="3">
-        <v>43564</v>
+        <v>43487</v>
       </c>
       <c r="F94" s="3">
-        <v>43591</v>
+        <v>43528</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="6"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="C95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43487</v>
+      </c>
+      <c r="F95" s="3">
+        <v>43528</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
+      <c r="C96" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E96" s="3">
-        <v>43570</v>
+        <v>43515</v>
       </c>
       <c r="F96" s="3">
-        <v>43584</v>
+        <v>43536</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
-        <v>5</v>
+      <c r="C97" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E97" s="3">
-        <v>43588</v>
+        <v>43515</v>
       </c>
       <c r="F97" s="3">
-        <v>43588</v>
+        <v>43536</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
-        <v>0</v>
+      <c r="C98" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" ref="D98" si="1">F98-E98</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="E98" s="3">
-        <v>43592</v>
+        <v>43536</v>
       </c>
       <c r="F98" s="3">
-        <v>43592</v>
+        <v>43564</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43564</v>
+      </c>
+      <c r="F99" s="3">
+        <v>43591</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="6"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43570</v>
+      </c>
+      <c r="F101" s="3">
+        <v>43584</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43588</v>
+      </c>
+      <c r="F102" s="3">
+        <v>43588</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" ref="D103" si="1">F103-E103</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43592</v>
+      </c>
+      <c r="F103" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9" t="s">
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9" t="s">
+      <c r="H108" s="8"/>
+      <c r="I108" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9" t="s">
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="7">
-        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D104" s="9">
-        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9">
-        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Finished")</f>
-        <v>28</v>
-      </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9">
-        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Not Started")</f>
-        <v>1</v>
-      </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9">
-        <f>COUNTIFS(B5:B98, "James Bell", G5:G98, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="7">
-        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "In progress")</f>
-        <v>3</v>
-      </c>
-      <c r="D105" s="9">
-        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9">
-        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Finished")</f>
-        <v>22</v>
-      </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9">
-        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9">
-        <f>COUNTIFS(B5:B98, "Samuel Hussey", G5:G98, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="7">
-        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D106" s="9">
-        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9">
-        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Finished")</f>
-        <v>22</v>
-      </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9">
-        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9">
-        <f>COUNTIFS(B5:B98, "Zachary Schneiderman", G5:G98, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="1">
-        <f>C104+C105+C106+D104+D105+D106+G104+G105+G106+I104+I105+I106+L104+L105+L106</f>
-        <v>80</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C109" s="7">
+        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D109" s="8">
+        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8">
+        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Finished")</f>
+        <v>29</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8">
+        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Not Started")</f>
+        <v>1</v>
+      </c>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8">
+        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="7">
+        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D110" s="8">
+        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8">
+        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Finished")</f>
+        <v>24</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8">
+        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8">
+        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="7">
+        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D111" s="8">
+        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8">
+        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Finished")</f>
+        <v>23</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8">
+        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8">
+        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1">
+        <f>C109+C110+C111+D109+D110+D111+G109+G110+G111+I109+I110+I111+L109+L110+L111</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="1">
-        <f>G104+G105+G106</f>
-        <v>72</v>
+      <c r="C115" s="1">
+        <f>G109+G110+G111</f>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:K106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="L104:N104"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:K110"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:K111"/>
+    <mergeCell ref="L111:N111"/>
   </mergeCells>
-  <conditionalFormatting sqref="A108:XFD1048576 A107 C107:XFD107 A1:B1 H1:XFD1 G103 I103 L103 O103:XFD106 A103:D106 A2:XFD102">
+  <conditionalFormatting sqref="A113:XFD1048576 A112 C112:XFD112 A1:B1 H1:XFD1 G108 I108 L108 O108:XFD111 A108:D111 A2:XFD107">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5362,7 +5444,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G103 I103 L103 A107:XFD1048576 O103:XFD106 A103:D106 A2:XFD102">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G108 I108 L108 A112:XFD1048576 O108:XFD111 A108:D111 A2:XFD107">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5370,7 +5452,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G106">
+  <conditionalFormatting sqref="G109:G111">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5380,24 +5462,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G104,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G109,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G104,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G109,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G104,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G109,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G106">
+  <conditionalFormatting sqref="G109:G111">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G109)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G109)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104:I106">
+  <conditionalFormatting sqref="I109:I111">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5407,24 +5489,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I104,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I109,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I104,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I109,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I104,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I109,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104:I106">
+  <conditionalFormatting sqref="I109:I111">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I109)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I109)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104:L106">
+  <conditionalFormatting sqref="L109:L111">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5434,21 +5516,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L104,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L109,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L104,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L109,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L104,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L109,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104:L106">
+  <conditionalFormatting sqref="L109:L111">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L109)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5466,7 +5548,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G98</xm:sqref>
+          <xm:sqref>G5:G103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5492,14 +5574,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -7056,14 +7138,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8530,14 +8612,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48691E42-5F2A-48F0-8E58-052AE914CB52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BE5343-1C39-4727-AFB7-8E3BE3C5C99F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="122">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -735,6 +735,12 @@
   </si>
   <si>
     <t>Collect data for Final Design review</t>
+  </si>
+  <si>
+    <t>Create SSB testing Signals</t>
+  </si>
+  <si>
+    <t>Test SSB signals on radio receiver</t>
   </si>
 </sst>
 </file>
@@ -842,10 +848,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3244,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N115"/>
+  <dimension ref="B1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,21 +3268,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43566</v>
+        <v>43572</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3284,8 +3290,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F103 - B2</f>
-        <v>26</v>
+        <f>F105 - B2</f>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3340,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D102" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D104" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -4705,7 +4711,7 @@
         <v>43544</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -4915,7 +4921,7 @@
         <v>43556</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -4978,7 +4984,7 @@
         <v>43556</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -5020,7 +5026,7 @@
         <v>43572</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -5041,7 +5047,7 @@
         <v>43569</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -5062,87 +5068,93 @@
         <v>43569</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="6"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="B89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43566</v>
+      </c>
+      <c r="F89" s="3">
+        <v>43571</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="6"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="B90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>43571</v>
+      </c>
+      <c r="F90" s="3">
+        <v>43572</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="C91" s="6"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="C92" s="6"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E94" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F94" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E95" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F95" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C95" s="6"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E96" s="3">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F96" s="3">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>11</v>
@@ -5150,17 +5162,17 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E97" s="3">
-        <v>43515</v>
+        <v>43487</v>
       </c>
       <c r="F97" s="3">
-        <v>43536</v>
+        <v>43528</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>11</v>
@@ -5168,17 +5180,17 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E98" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F98" s="3">
         <v>43536</v>
-      </c>
-      <c r="F98" s="3">
-        <v>43564</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>11</v>
@@ -5186,246 +5198,282 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E99" s="3">
-        <v>43564</v>
+        <v>43515</v>
       </c>
       <c r="F99" s="3">
-        <v>43591</v>
+        <v>43536</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="6"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="C100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43536</v>
+      </c>
+      <c r="F100" s="3">
+        <v>43564</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
+      <c r="C101" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E101" s="3">
-        <v>43570</v>
+        <v>43564</v>
       </c>
       <c r="F101" s="3">
-        <v>43584</v>
+        <v>43591</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>43588</v>
-      </c>
-      <c r="F102" s="3">
-        <v>43588</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C102" s="6"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C103" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" ref="D103" si="1">F103-E103</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E103" s="3">
-        <v>43592</v>
+        <v>43570</v>
       </c>
       <c r="F103" s="3">
-        <v>43592</v>
+        <v>43584</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="7">
-        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D109" s="8">
-        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Overdue")</f>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8">
-        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Finished")</f>
-        <v>29</v>
-      </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8">
-        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Not Started")</f>
-        <v>1</v>
-      </c>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8">
-        <f>COUNTIFS(B5:B103, "James Bell", G5:G103, "Critical")</f>
+      <c r="E104" s="3">
+        <v>43588</v>
+      </c>
+      <c r="F104" s="3">
+        <v>43588</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
+      <c r="D105" s="1">
+        <f t="shared" ref="D105" si="1">F105-E105</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>43592</v>
+      </c>
+      <c r="F105" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="7">
-        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D110" s="8">
-        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8">
-        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Finished")</f>
-        <v>24</v>
-      </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8">
-        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8">
-        <f>COUNTIFS(B5:B103, "Samuel Hussey", G5:G103, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="7">
+        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "In progress")</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="9">
+        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9">
+        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Finished")</f>
+        <v>32</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9">
+        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Not Started")</f>
+        <v>1</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9">
+        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="7">
+        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "In progress")</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="9">
+        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9">
+        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Finished")</f>
+        <v>26</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9">
+        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9">
+        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="7">
-        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D111" s="8">
-        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Overdue")</f>
+      <c r="C113" s="7">
+        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "In progress")</f>
         <v>0</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8">
-        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Finished")</f>
-        <v>23</v>
-      </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8">
-        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Not Started")</f>
+      <c r="D113" s="9">
+        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8">
-        <f>COUNTIFS(B5:B103, "Zachary Schneiderman", G5:G103, "Critical")</f>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9">
+        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Finished")</f>
+        <v>26</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9">
+        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9">
+        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="1">
-        <f>C109+C110+C111+D109+D110+D111+G109+G110+G111+I109+I110+I111+L109+L110+L111</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="C116" s="1">
+        <f>C111+C112+C113+D111+D112+D113+G111+G112+G113+I111+I112+I113+L111+L112+L113</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="1">
-        <f>G109+G110+G111</f>
-        <v>76</v>
+      <c r="C117" s="1">
+        <f>G111+G112+G113</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:K108"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:K110"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:K109"/>
-    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="L113:N113"/>
     <mergeCell ref="L110:N110"/>
     <mergeCell ref="D111:F111"/>
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:K110"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:K112"/>
   </mergeCells>
-  <conditionalFormatting sqref="A113:XFD1048576 A112 C112:XFD112 A1:B1 H1:XFD1 G108 I108 L108 O108:XFD111 A108:D111 A2:XFD107">
+  <conditionalFormatting sqref="A115:XFD1048576 A114 C114:XFD114 A1:B1 H1:XFD1 G110 I110 L110 O110:XFD113 A110:D113 A2:XFD109">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5444,7 +5492,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G108 I108 L108 A112:XFD1048576 O108:XFD111 A108:D111 A2:XFD107">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G110 I110 L110 A114:XFD1048576 O110:XFD113 A110:D113 A2:XFD109">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5452,7 +5500,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G111">
+  <conditionalFormatting sqref="G111:G113">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5462,24 +5510,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G109,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G111,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G109,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G111,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G109,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G111,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G111">
+  <conditionalFormatting sqref="G111:G113">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G111)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109:I111">
+  <conditionalFormatting sqref="I111:I113">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5489,24 +5537,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I109,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I111,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I109,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I111,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I109,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I111,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109:I111">
+  <conditionalFormatting sqref="I111:I113">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I111)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L109:L111">
+  <conditionalFormatting sqref="L111:L113">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5516,21 +5564,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L109,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L111,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L109,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L111,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L109,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L111,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L109:L111">
+  <conditionalFormatting sqref="L111:L113">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L111)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L109)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5548,7 +5596,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G103</xm:sqref>
+          <xm:sqref>G5:G105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5574,14 +5622,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -7138,14 +7186,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8612,14 +8660,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BE5343-1C39-4727-AFB7-8E3BE3C5C99F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465262D-FEFC-4525-AB70-2924917394E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7635" yWindow="3165" windowWidth="15300" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="125">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -401,9 +401,6 @@
     <t>Thanksgiving Break</t>
   </si>
   <si>
-    <t>Finalize Poster</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -741,6 +738,18 @@
   </si>
   <si>
     <t>Test SSB signals on radio receiver</t>
+  </si>
+  <si>
+    <t>Senior Design Day poster</t>
+  </si>
+  <si>
+    <t>Senior design day power point</t>
+  </si>
+  <si>
+    <t>Get function wave generator for Senior Design Day</t>
+  </si>
+  <si>
+    <t>Put radio in enclosure for saftey</t>
   </si>
 </sst>
 </file>
@@ -848,10 +857,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3250,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N117"/>
+  <dimension ref="B1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,16 +3277,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -3285,12 +3294,12 @@
         <v>43572</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F105 - B2</f>
+        <f>F107 - B2</f>
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3302,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -3314,15 +3323,15 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <f>F5-E5</f>
@@ -3335,18 +3344,18 @@
         <v>43367</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D104" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D105" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -3356,15 +3365,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -3377,15 +3386,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -3398,15 +3407,15 @@
         <v>43367</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -3419,15 +3428,15 @@
         <v>43367</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -3440,15 +3449,15 @@
         <v>43367</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -3461,15 +3470,15 @@
         <v>43357</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -3482,15 +3491,15 @@
         <v>43357</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -3503,15 +3512,15 @@
         <v>43357</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -3524,15 +3533,15 @@
         <v>43395</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -3545,15 +3554,15 @@
         <v>43395</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -3566,15 +3575,15 @@
         <v>43395</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -3587,15 +3596,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -3608,15 +3617,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -3629,15 +3638,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -3650,15 +3659,15 @@
         <v>43388</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -3671,15 +3680,15 @@
         <v>43388</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -3692,15 +3701,15 @@
         <v>43388</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -3713,15 +3722,15 @@
         <v>43388</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -3734,15 +3743,15 @@
         <v>43388</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -3755,15 +3764,15 @@
         <v>43388</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -3776,15 +3785,15 @@
         <v>43388</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -3797,15 +3806,15 @@
         <v>43388</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -3818,15 +3827,15 @@
         <v>43388</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -3839,15 +3848,15 @@
         <v>43388</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3860,15 +3869,15 @@
         <v>43388</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3881,15 +3890,15 @@
         <v>43388</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3902,15 +3911,15 @@
         <v>43388</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3923,15 +3932,15 @@
         <v>43388</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3944,15 +3953,15 @@
         <v>43388</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3965,15 +3974,15 @@
         <v>43388</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -3986,15 +3995,15 @@
         <v>43388</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -4007,15 +4016,15 @@
         <v>43388</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -4028,15 +4037,15 @@
         <v>43388</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -4049,15 +4058,15 @@
         <v>43388</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -4070,15 +4079,15 @@
         <v>43395</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="3">
         <v>43383</v>
@@ -4087,15 +4096,15 @@
         <v>43388</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -4108,15 +4117,15 @@
         <v>43388</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -4129,15 +4138,15 @@
         <v>43388</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -4150,15 +4159,15 @@
         <v>43402</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
@@ -4171,15 +4180,15 @@
         <v>43401</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
@@ -4192,15 +4201,15 @@
         <v>43405</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
@@ -4213,15 +4222,15 @@
         <v>43423</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
@@ -4234,15 +4243,15 @@
         <v>43423</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
@@ -4255,15 +4264,15 @@
         <v>43423</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
@@ -4276,15 +4285,15 @@
         <v>43423</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
@@ -4297,15 +4306,15 @@
         <v>43423</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
@@ -4318,15 +4327,15 @@
         <v>43423</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
@@ -4339,15 +4348,15 @@
         <v>43430</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
@@ -4360,7 +4369,7 @@
         <v>43441</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4378,15 +4387,15 @@
         <v>43429</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
@@ -4399,12 +4408,12 @@
         <v>43430</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>5</v>
@@ -4420,15 +4429,15 @@
         <v>43432</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
@@ -4441,15 +4450,15 @@
         <v>43434</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
@@ -4462,15 +4471,15 @@
         <v>43434</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
@@ -4483,15 +4492,15 @@
         <v>43434</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
@@ -4504,15 +4513,15 @@
         <v>43434</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
@@ -4525,15 +4534,15 @@
         <v>43434</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
@@ -4546,15 +4555,15 @@
         <v>43437</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
@@ -4567,15 +4576,15 @@
         <v>43437</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
@@ -4588,7 +4597,7 @@
         <v>43437</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -4606,15 +4615,15 @@
         <v>43441</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
@@ -4627,15 +4636,15 @@
         <v>43500</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
@@ -4648,15 +4657,15 @@
         <v>43502</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="0"/>
@@ -4669,15 +4678,15 @@
         <v>43509</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="0"/>
@@ -4690,15 +4699,15 @@
         <v>43516</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
@@ -4711,15 +4720,15 @@
         <v>43544</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
@@ -4732,15 +4741,15 @@
         <v>43516</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="0"/>
@@ -4753,15 +4762,15 @@
         <v>43516</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="0"/>
@@ -4774,15 +4783,15 @@
         <v>43516</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="0"/>
@@ -4795,15 +4804,15 @@
         <v>43516</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="0"/>
@@ -4816,15 +4825,15 @@
         <v>43521</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="0"/>
@@ -4837,15 +4846,15 @@
         <v>43537</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="0"/>
@@ -4858,15 +4867,15 @@
         <v>43532</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="0"/>
@@ -4879,15 +4888,15 @@
         <v>43532</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="0"/>
@@ -4900,15 +4909,15 @@
         <v>43537</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="0"/>
@@ -4921,15 +4930,15 @@
         <v>43556</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="0"/>
@@ -4942,15 +4951,15 @@
         <v>43556</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="0"/>
@@ -4963,15 +4972,15 @@
         <v>43556</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="0"/>
@@ -4984,15 +4993,15 @@
         <v>43556</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="0"/>
@@ -5005,15 +5014,15 @@
         <v>43556</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="0"/>
@@ -5026,15 +5035,15 @@
         <v>43572</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="0"/>
@@ -5047,15 +5056,15 @@
         <v>43569</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="0"/>
@@ -5068,15 +5077,15 @@
         <v>43569</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="0"/>
@@ -5089,15 +5098,15 @@
         <v>43571</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="0"/>
@@ -5110,370 +5119,431 @@
         <v>43572</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="6"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="B91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43561</v>
+      </c>
+      <c r="F91" s="3">
+        <v>43565</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="6"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43561</v>
+      </c>
+      <c r="F92" s="3">
+        <v>43565</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C93" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43579</v>
+      </c>
+      <c r="F93" s="3">
+        <v>43584</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C94" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="E94" s="3">
+        <v>43579</v>
+      </c>
+      <c r="F94" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="6"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="B95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43579</v>
+      </c>
+      <c r="F95" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C96" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="E96" s="3">
-        <v>43487</v>
+        <v>43579</v>
       </c>
       <c r="F96" s="3">
-        <v>43528</v>
+        <v>43592</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E97" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F97" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C97" s="6"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E98" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F98" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C98" s="6"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E99" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F99" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C99" s="6"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E100" s="3">
-        <v>43536</v>
+        <v>43487</v>
       </c>
       <c r="F100" s="3">
-        <v>43564</v>
+        <v>43528</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="3">
+        <v>43487</v>
+      </c>
+      <c r="F101" s="3">
+        <v>43528</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F102" s="3">
+        <v>43536</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F103" s="3">
+        <v>43536</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43536</v>
+      </c>
+      <c r="F104" s="3">
+        <v>43564</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E105" s="3">
         <v>43564</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F105" s="3">
         <v>43591</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="6"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E103" s="3">
-        <v>43570</v>
-      </c>
-      <c r="F103" s="3">
-        <v>43584</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="1">
-        <f t="shared" si="0"/>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="6"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E104" s="3">
-        <v>43588</v>
-      </c>
-      <c r="F104" s="3">
-        <v>43588</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="2" t="s">
+      <c r="D107" s="1">
+        <f t="shared" ref="D107" si="1">F107-E107</f>
         <v>0</v>
       </c>
-      <c r="D105" s="1">
-        <f t="shared" ref="D105" si="1">F105-E105</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="E107" s="3">
         <v>43592</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F107" s="3">
         <v>43592</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="7">
-        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="9">
-        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9">
-        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Finished")</f>
-        <v>32</v>
-      </c>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9">
-        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Not Started")</f>
-        <v>1</v>
-      </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9">
-        <f>COUNTIFS(B5:B105, "James Bell", G5:G105, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" s="7">
-        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "In progress")</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="9">
-        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9">
-        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Finished")</f>
-        <v>26</v>
-      </c>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9">
-        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9">
-        <f>COUNTIFS(B5:B105, "Samuel Hussey", G5:G105, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C113" s="7">
-        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "In progress")</f>
+        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "In progress")</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="8">
+        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="D113" s="9">
-        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Overdue")</f>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8">
+        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Finished")</f>
+        <v>33</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8">
+        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9">
-        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Finished")</f>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8">
+        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="7">
+        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D114" s="8">
+        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8">
+        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Finished")</f>
         <v>26</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9">
-        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Not Started")</f>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8">
+        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9">
-        <f>COUNTIFS(B5:B105, "Zachary Schneiderman", G5:G105, "Critical")</f>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8">
+        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="7">
+        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D115" s="8">
+        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8">
+        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Finished")</f>
+        <v>26</v>
+      </c>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8">
+        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8">
+        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="1">
+        <f>C113+C114+C115+D113+D114+D115+G113+G114+G115+I113+I114+I115+L113+L114+L115</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="1">
-        <f>C111+C112+C113+D111+D112+D113+G111+G112+G113+I111+I112+I113+L111+L112+L113</f>
+      <c r="C119" s="1">
+        <f>G113+G114+G115</f>
         <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="1">
-        <f>G111+G112+G113</f>
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:K114"/>
     <mergeCell ref="L112:N112"/>
     <mergeCell ref="D113:F113"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="I113:K113"/>
     <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:K110"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="L115:N115"/>
   </mergeCells>
-  <conditionalFormatting sqref="A115:XFD1048576 A114 C114:XFD114 A1:B1 H1:XFD1 G110 I110 L110 O110:XFD113 A110:D113 A2:XFD109">
+  <conditionalFormatting sqref="A117:XFD1048576 A116 C116:XFD116 A1:B1 H1:XFD1 G112 I112 L112 O112:XFD115 A112:D115 A2:XFD111">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5492,7 +5562,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G110 I110 L110 A114:XFD1048576 O110:XFD113 A110:D113 A2:XFD109">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G112 I112 L112 A116:XFD1048576 O112:XFD115 A112:D115 A2:XFD111">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5500,7 +5570,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G113">
+  <conditionalFormatting sqref="G113:G115">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5510,24 +5580,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G111,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G113,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G111,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G113,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G111,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G113,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G113">
+  <conditionalFormatting sqref="G113:G115">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G113)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G113)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I113">
+  <conditionalFormatting sqref="I113:I115">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5537,24 +5607,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I111,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I113,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I111,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I113,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I111,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I113,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I113">
+  <conditionalFormatting sqref="I113:I115">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I113)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I113)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L111:L113">
+  <conditionalFormatting sqref="L113:L115">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5564,21 +5634,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L111,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L113,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L111,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L113,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L111,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L113,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L111:L113">
+  <conditionalFormatting sqref="L113:L115">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L113)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5596,7 +5666,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G105</xm:sqref>
+          <xm:sqref>G5:G107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5622,21 +5692,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5660,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -5672,15 +5742,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D26" si="0">F6-E6</f>
@@ -5693,15 +5763,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -5714,15 +5784,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -5735,15 +5805,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -5756,15 +5826,15 @@
         <v>43388</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -5777,15 +5847,15 @@
         <v>43388</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -5798,15 +5868,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -5819,15 +5889,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -5840,15 +5910,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -5861,15 +5931,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -5882,15 +5952,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -5903,15 +5973,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -5924,15 +5994,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -5945,15 +6015,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -5966,15 +6036,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -5987,15 +6057,15 @@
         <v>43395</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -6008,15 +6078,15 @@
         <v>43402</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -6029,15 +6099,15 @@
         <v>43401</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -6050,15 +6120,15 @@
         <v>43423</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -6071,15 +6141,15 @@
         <v>43423</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -6092,15 +6162,15 @@
         <v>43423</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -6113,7 +6183,7 @@
         <v>43434</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7186,21 +7256,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7224,7 +7294,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -7236,15 +7306,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D21" si="0">F6-E6</f>
@@ -7257,15 +7327,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -7278,15 +7348,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -7299,15 +7369,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -7320,15 +7390,15 @@
         <v>43395</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -7341,15 +7411,15 @@
         <v>43388</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -7362,15 +7432,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -7383,15 +7453,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -7404,15 +7474,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -7425,15 +7495,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -7446,15 +7516,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3">
@@ -7464,15 +7534,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -7485,15 +7555,15 @@
         <v>43411</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -7506,15 +7576,15 @@
         <v>43423</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -7527,15 +7597,15 @@
         <v>43423</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -7548,12 +7618,12 @@
         <v>43430</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -7569,7 +7639,7 @@
         <v>43432</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8660,21 +8730,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>43432</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -8698,7 +8768,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -8710,15 +8780,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <f>F6-E6</f>
@@ -8731,15 +8801,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:D21" si="0">F7-E7</f>
@@ -8752,15 +8822,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -8773,15 +8843,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -8794,15 +8864,15 @@
         <v>43395</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -8815,15 +8885,15 @@
         <v>43395</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -8836,15 +8906,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -8857,15 +8927,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -8878,15 +8948,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -8899,15 +8969,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -8920,15 +8990,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -8941,15 +9011,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -8962,15 +9032,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -8983,15 +9053,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -9004,15 +9074,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -9025,15 +9095,15 @@
         <v>43405</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -9046,7 +9116,7 @@
         <v>43423</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -9858,37 +9928,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465262D-FEFC-4525-AB70-2924917394E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06FDD4-4299-4B10-AF7F-54A53A24F454}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7635" yWindow="3165" windowWidth="15300" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F'18" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
   <si>
     <t>Senior Design Day</t>
   </si>
@@ -750,6 +750,15 @@
   </si>
   <si>
     <t>Put radio in enclosure for saftey</t>
+  </si>
+  <si>
+    <t>Radio form factor change and connection checking</t>
+  </si>
+  <si>
+    <t>Ltspice Documentation of design</t>
+  </si>
+  <si>
+    <t>Sections of the D2 Final report</t>
   </si>
 </sst>
 </file>
@@ -857,10 +866,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3259,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N119"/>
+  <dimension ref="B1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,21 +3286,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>43572</v>
+        <v>43586</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -3299,8 +3308,8 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>F107 - B2</f>
-        <v>20</v>
+        <f>F111 - B2</f>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -3355,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D105" si="0">F6-E6</f>
+        <f t="shared" ref="D6:D109" si="0">F6-E6</f>
         <v>24</v>
       </c>
       <c r="E6" s="3">
@@ -5192,6 +5201,10 @@
       <c r="C94" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="D94" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E94" s="3">
         <v>43579</v>
       </c>
@@ -5209,6 +5222,10 @@
       <c r="C95" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="D95" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E95" s="3">
         <v>43579</v>
       </c>
@@ -5226,6 +5243,10 @@
       <c r="C96" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="D96" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E96" s="3">
         <v>43579</v>
       </c>
@@ -5236,314 +5257,414 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="6"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="6"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="6"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="1">
+        <f>F97-E97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>43583</v>
+      </c>
+      <c r="F97" s="3">
+        <v>43583</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="1">
+        <f>F98-E98</f>
+        <v>9</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43583</v>
+      </c>
+      <c r="F98" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" ref="D99:D101" si="1">F99-E99</f>
+        <v>2</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43584</v>
+      </c>
+      <c r="F99" s="3">
+        <v>43586</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43584</v>
+      </c>
+      <c r="F100" s="3">
+        <v>43586</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43584</v>
+      </c>
+      <c r="F101" s="3">
+        <v>43586</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="6"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="6"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D104" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E104" s="3">
         <v>43487</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F104" s="3">
         <v>43528</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E101" s="3">
-        <v>43487</v>
-      </c>
-      <c r="F101" s="3">
-        <v>43528</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D102" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E102" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F102" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D103" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E103" s="3">
-        <v>43515</v>
-      </c>
-      <c r="F103" s="3">
-        <v>43536</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E104" s="3">
-        <v>43536</v>
-      </c>
-      <c r="F104" s="3">
-        <v>43564</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E105" s="3">
-        <v>43564</v>
+        <v>43487</v>
       </c>
       <c r="F105" s="3">
-        <v>43591</v>
+        <v>43528</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="6"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="2" t="s">
-        <v>0</v>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E106" s="3">
+        <v>43515</v>
+      </c>
+      <c r="F106" s="3">
+        <v>43536</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ref="D107" si="1">F107-E107</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E107" s="3">
-        <v>43592</v>
+        <v>43515</v>
       </c>
       <c r="F107" s="3">
-        <v>43592</v>
+        <v>43536</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" s="7">
-        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "In progress")</f>
-        <v>1</v>
-      </c>
-      <c r="D113" s="8">
-        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Overdue")</f>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E108" s="3">
+        <v>43536</v>
+      </c>
+      <c r="F108" s="3">
+        <v>43564</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E109" s="3">
+        <v>43564</v>
+      </c>
+      <c r="F109" s="3">
+        <v>43591</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="6"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8">
-        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Finished")</f>
-        <v>33</v>
-      </c>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8">
-        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Not Started")</f>
+      <c r="D111" s="1">
+        <f t="shared" ref="D111" si="2">F111-E111</f>
         <v>0</v>
       </c>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8">
-        <f>COUNTIFS(B5:B107, "James Bell", G5:G107, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
+      <c r="E111" s="3">
+        <v>43592</v>
+      </c>
+      <c r="F111" s="3">
+        <v>43592</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="7">
-        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "In progress")</f>
-        <v>2</v>
-      </c>
-      <c r="D114" s="8">
-        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Overdue")</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8">
-        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Finished")</f>
-        <v>26</v>
-      </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8">
-        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Not Started")</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8">
-        <f>COUNTIFS(B5:B107, "Samuel Hussey", G5:G107, "Critical")</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="7">
+        <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "In progress")</f>
+        <v>1</v>
+      </c>
+      <c r="D115" s="9">
+        <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9">
+        <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Finished")</f>
+        <v>34</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9">
+        <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9">
+        <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="7">
+        <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "In progress")</f>
+        <v>2</v>
+      </c>
+      <c r="D116" s="9">
+        <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Overdue")</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9">
+        <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Finished")</f>
+        <v>28</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9">
+        <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Not Started")</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9">
+        <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Critical")</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C115" s="7">
-        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "In progress")</f>
+      <c r="C117" s="7">
+        <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D115" s="8">
-        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Overdue")</f>
+      <c r="D117" s="9">
+        <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8">
-        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Finished")</f>
-        <v>26</v>
-      </c>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8">
-        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Not Started")</f>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9">
+        <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Finished")</f>
+        <v>28</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9">
+        <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8">
-        <f>COUNTIFS(B5:B107, "Zachary Schneiderman", G5:G107, "Critical")</f>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9">
+        <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="1">
-        <f>C113+C114+C115+D113+D114+D115+G113+G114+G115+I113+I114+I115+L113+L114+L115</f>
+      <c r="C120" s="1">
+        <f>C115+C116+C117+D115+D116+D117+G115+G116+G117+I115+I116+I117+L115+L116+L117</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="1">
+        <f>G115+G116+G117</f>
         <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="1">
-        <f>G113+G114+G115</f>
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:K112"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="L117:N117"/>
     <mergeCell ref="L114:N114"/>
     <mergeCell ref="D115:F115"/>
     <mergeCell ref="G115:H115"/>
     <mergeCell ref="I115:K115"/>
     <mergeCell ref="L115:N115"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:K116"/>
   </mergeCells>
-  <conditionalFormatting sqref="A117:XFD1048576 A116 C116:XFD116 A1:B1 H1:XFD1 G112 I112 L112 O112:XFD115 A112:D115 A2:XFD111">
+  <conditionalFormatting sqref="A119:XFD1048576 A118 C118:XFD118 A1:B1 H1:XFD1 G114 I114 L114 O114:XFD117 A114:D117 A2:XFD113">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5562,7 +5683,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G112 I112 L112 A116:XFD1048576 O112:XFD115 A112:D115 A2:XFD111">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G114 I114 L114 A118:XFD1048576 O114:XFD117 A114:D117 A2:XFD113">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5570,7 +5691,7 @@
       <formula>NOT(ISERROR(SEARCH("Critical",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G115">
+  <conditionalFormatting sqref="G115:G117">
     <cfRule type="cellIs" dxfId="285" priority="21" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5580,24 +5701,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="283" priority="23" operator="endsWith" text="Not Started">
-      <formula>RIGHT(G113,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(G115,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="282" priority="24" operator="endsWith" text="In progress">
-      <formula>RIGHT(G113,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(G115,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="281" priority="25" operator="endsWith" text="Finished">
-      <formula>RIGHT(G113,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(G115,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G115">
+  <conditionalFormatting sqref="G115:G117">
     <cfRule type="containsText" dxfId="280" priority="19" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",G113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",G115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",G113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G115)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:I115">
+  <conditionalFormatting sqref="I115:I117">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5607,24 +5728,24 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="276" priority="16" operator="endsWith" text="Not Started">
-      <formula>RIGHT(I113,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(I115,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="275" priority="17" operator="endsWith" text="In progress">
-      <formula>RIGHT(I113,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(I115,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="274" priority="18" operator="endsWith" text="Finished">
-      <formula>RIGHT(I113,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(I115,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:I115">
+  <conditionalFormatting sqref="I115:I117">
     <cfRule type="containsText" dxfId="273" priority="12" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",I113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",I115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",I113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",I115)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L113:L115">
+  <conditionalFormatting sqref="L115:L117">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5634,21 +5755,21 @@
       <formula>43466</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="269" priority="9" operator="endsWith" text="Not Started">
-      <formula>RIGHT(L113,LEN("Not Started"))="Not Started"</formula>
+      <formula>RIGHT(L115,LEN("Not Started"))="Not Started"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="268" priority="10" operator="endsWith" text="In progress">
-      <formula>RIGHT(L113,LEN("In progress"))="In progress"</formula>
+      <formula>RIGHT(L115,LEN("In progress"))="In progress"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="267" priority="11" operator="endsWith" text="Finished">
-      <formula>RIGHT(L113,LEN("Finished"))="Finished"</formula>
+      <formula>RIGHT(L115,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L113:L115">
+  <conditionalFormatting sqref="L115:L117">
     <cfRule type="containsText" dxfId="266" priority="5" operator="containsText" text="Overdue">
-      <formula>NOT(ISERROR(SEARCH("Overdue",L113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Overdue",L115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="265" priority="6" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",L113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",L115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -5666,7 +5787,7 @@
           <x14:formula1>
             <xm:f>Fields!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G107</xm:sqref>
+          <xm:sqref>G5:G111</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5692,14 +5813,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -7256,14 +7377,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8730,14 +8851,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">

--- a/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
+++ b/docs/Weekly_Project_Schedule_Software_Defined_Radio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senior design day binder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06FDD4-4299-4B10-AF7F-54A53A24F454}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC8438-4073-4587-97BA-9830DB118C1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,9 +425,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>1.12 Software Defined Radio Milestone Schedule</t>
-  </si>
-  <si>
     <t>Statement Of Work (Executive Summary)</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>Sections of the D2 Final report</t>
+  </si>
+  <si>
+    <t>2.12 Software Defined Radio Milestone Schedule</t>
   </si>
 </sst>
 </file>
@@ -866,10 +866,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3268,10 +3268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N121"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,16 +3289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -3337,10 +3340,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <f>F5-E5</f>
@@ -3353,15 +3356,15 @@
         <v>43367</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D109" si="0">F6-E6</f>
@@ -3374,15 +3377,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -3395,15 +3398,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -3416,15 +3419,15 @@
         <v>43367</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -3437,15 +3440,15 @@
         <v>43367</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -3458,15 +3461,15 @@
         <v>43367</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -3479,15 +3482,15 @@
         <v>43357</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -3500,15 +3503,15 @@
         <v>43357</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -3521,15 +3524,15 @@
         <v>43357</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -3542,15 +3545,15 @@
         <v>43395</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -3563,15 +3566,15 @@
         <v>43395</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -3584,15 +3587,15 @@
         <v>43395</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -3605,15 +3608,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -3626,15 +3629,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -3647,15 +3650,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -3668,15 +3671,15 @@
         <v>43388</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -3689,15 +3692,15 @@
         <v>43388</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -3710,15 +3713,15 @@
         <v>43388</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -3731,15 +3734,15 @@
         <v>43388</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -3752,15 +3755,15 @@
         <v>43388</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -3773,15 +3776,15 @@
         <v>43388</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -3794,15 +3797,15 @@
         <v>43388</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -3815,15 +3818,15 @@
         <v>43388</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -3836,15 +3839,15 @@
         <v>43388</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -3857,15 +3860,15 @@
         <v>43388</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -3878,15 +3881,15 @@
         <v>43388</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -3899,15 +3902,15 @@
         <v>43388</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -3920,15 +3923,15 @@
         <v>43388</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -3941,15 +3944,15 @@
         <v>43388</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -3962,15 +3965,15 @@
         <v>43388</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -3983,15 +3986,15 @@
         <v>43388</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
@@ -4004,15 +4007,15 @@
         <v>43388</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -4025,15 +4028,15 @@
         <v>43388</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -4046,15 +4049,15 @@
         <v>43388</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -4067,15 +4070,15 @@
         <v>43388</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -4088,15 +4091,15 @@
         <v>43395</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="3">
         <v>43383</v>
@@ -4105,15 +4108,15 @@
         <v>43388</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
@@ -4126,15 +4129,15 @@
         <v>43388</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -4147,15 +4150,15 @@
         <v>43388</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -4168,15 +4171,15 @@
         <v>43402</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
@@ -4189,15 +4192,15 @@
         <v>43401</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
@@ -4210,15 +4213,15 @@
         <v>43405</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
@@ -4231,15 +4234,15 @@
         <v>43423</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
@@ -4252,15 +4255,15 @@
         <v>43423</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
@@ -4273,15 +4276,15 @@
         <v>43423</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
@@ -4294,15 +4297,15 @@
         <v>43423</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
@@ -4315,15 +4318,15 @@
         <v>43423</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
@@ -4336,15 +4339,15 @@
         <v>43423</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
@@ -4357,15 +4360,15 @@
         <v>43430</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
@@ -4378,7 +4381,7 @@
         <v>43441</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -4396,15 +4399,15 @@
         <v>43429</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
@@ -4417,12 +4420,12 @@
         <v>43430</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>5</v>
@@ -4438,15 +4441,15 @@
         <v>43432</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
@@ -4459,15 +4462,15 @@
         <v>43434</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
@@ -4480,15 +4483,15 @@
         <v>43434</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
@@ -4501,15 +4504,15 @@
         <v>43434</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
@@ -4522,15 +4525,15 @@
         <v>43434</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
@@ -4543,15 +4546,15 @@
         <v>43434</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
@@ -4564,15 +4567,15 @@
         <v>43437</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
@@ -4585,15 +4588,15 @@
         <v>43437</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
@@ -4606,7 +4609,7 @@
         <v>43437</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -4624,15 +4627,15 @@
         <v>43441</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
@@ -4645,15 +4648,15 @@
         <v>43500</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
@@ -4666,15 +4669,15 @@
         <v>43502</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="0"/>
@@ -4687,15 +4690,15 @@
         <v>43509</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="0"/>
@@ -4708,15 +4711,15 @@
         <v>43516</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="0"/>
@@ -4729,15 +4732,15 @@
         <v>43544</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="0"/>
@@ -4750,15 +4753,15 @@
         <v>43516</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="0"/>
@@ -4771,15 +4774,15 @@
         <v>43516</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="0"/>
@@ -4792,15 +4795,15 @@
         <v>43516</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="0"/>
@@ -4813,15 +4816,15 @@
         <v>43516</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="0"/>
@@ -4834,15 +4837,15 @@
         <v>43521</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="0"/>
@@ -4855,15 +4858,15 @@
         <v>43537</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="0"/>
@@ -4876,15 +4879,15 @@
         <v>43532</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="0"/>
@@ -4897,15 +4900,15 @@
         <v>43532</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="0"/>
@@ -4918,15 +4921,15 @@
         <v>43537</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="0"/>
@@ -4939,15 +4942,15 @@
         <v>43556</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="0"/>
@@ -4960,15 +4963,15 @@
         <v>43556</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="0"/>
@@ -4981,15 +4984,15 @@
         <v>43556</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="0"/>
@@ -5002,15 +5005,15 @@
         <v>43556</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="0"/>
@@ -5023,15 +5026,15 @@
         <v>43556</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="0"/>
@@ -5044,15 +5047,15 @@
         <v>43572</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="0"/>
@@ -5065,15 +5068,15 @@
         <v>43569</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="0"/>
@@ -5086,15 +5089,15 @@
         <v>43569</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="0"/>
@@ -5107,15 +5110,15 @@
         <v>43571</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="0"/>
@@ -5128,15 +5131,15 @@
         <v>43572</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="0"/>
@@ -5154,10 +5157,10 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="0"/>
@@ -5175,10 +5178,10 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="0"/>
@@ -5196,10 +5199,10 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="0"/>
@@ -5212,15 +5215,15 @@
         <v>43592</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="0"/>
@@ -5238,10 +5241,10 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="0"/>
@@ -5259,10 +5262,10 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="1">
         <f>F97-E97</f>
@@ -5275,15 +5278,15 @@
         <v>43583</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="1">
         <f>F98-E98</f>
@@ -5296,15 +5299,15 @@
         <v>43592</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" ref="D99:D101" si="1">F99-E99</f>
@@ -5317,15 +5320,15 @@
         <v>43586</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
@@ -5338,15 +5341,15 @@
         <v>43586</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="1"/>
@@ -5359,7 +5362,7 @@
         <v>43586</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -5374,7 +5377,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C104" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="0"/>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="0"/>
@@ -5410,7 +5413,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C106" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="0"/>
@@ -5428,7 +5431,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C107" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="0"/>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C108" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="0"/>
@@ -5464,7 +5467,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C109" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="0"/>
@@ -5505,157 +5508,147 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9" t="s">
+      <c r="H114" s="8"/>
+      <c r="I114" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9" t="s">
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115" s="7">
         <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "In progress")</f>
         <v>1</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="8">
         <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9">
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8">
         <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Finished")</f>
         <v>34</v>
       </c>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9">
+      <c r="H115" s="8"/>
+      <c r="I115" s="8">
         <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9">
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8">
         <f>COUNTIFS(B5:B111, "James Bell", G5:G111, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" s="7">
         <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9">
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8">
         <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Finished")</f>
         <v>28</v>
       </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9">
+      <c r="H116" s="8"/>
+      <c r="I116" s="8">
         <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9">
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8">
         <f>COUNTIFS(B5:B111, "Samuel Hussey", G5:G111, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" s="7">
         <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "In progress")</f>
         <v>2</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="8">
         <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Overdue")</f>
         <v>0</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9">
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8">
         <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Finished")</f>
         <v>28</v>
       </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9">
+      <c r="H117" s="8"/>
+      <c r="I117" s="8">
         <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9">
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8">
         <f>COUNTIFS(B5:B111, "Zachary Schneiderman", G5:G111, "Critical")</f>
         <v>0</v>
       </c>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="1">
+        <f>C115+C116+C117+D115+D116+D117+G115+G116+G117+I115+I116+I117+L115+L116+L117</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="1">
-        <f>C115+C116+C117+D115+D116+D117+G115+G116+G117+I115+I116+I117+L115+L116+L117</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="1">
         <f>G115+G116+G117</f>
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:K115"/>
-    <mergeCell ref="L115:N115"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="G114:H114"/>
@@ -5663,8 +5656,18 @@
     <mergeCell ref="D116:F116"/>
     <mergeCell ref="G116:H116"/>
     <mergeCell ref="I116:K116"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="L117:N117"/>
   </mergeCells>
-  <conditionalFormatting sqref="A119:XFD1048576 A118 C118:XFD118 A1:B1 H1:XFD1 G114 I114 L114 O114:XFD117 A114:D117 A2:XFD113">
+  <conditionalFormatting sqref="A118:XFD1048576 A1:B1 H1:XFD1 G114 I114 L114 O114:XFD117 A114:D117 A2:XFD113">
     <cfRule type="cellIs" dxfId="292" priority="28" operator="between">
       <formula>43466</formula>
       <formula>43831</formula>
@@ -5683,7 +5686,7 @@
       <formula>RIGHT(A1,LEN("Finished"))="Finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1 H1:XFD1 G114 I114 L114 A118:XFD1048576 O114:XFD117 A114:D117 A2:XFD113">
+  <conditionalFormatting sqref="A1:B1 H1:XFD1 G114 I114 L114 O114:XFD117 A114:D117 A2:XFD113 A118:XFD1048576">
     <cfRule type="containsText" dxfId="287" priority="26" operator="containsText" text="Overdue">
       <formula>NOT(ISERROR(SEARCH("Overdue",A1)))</formula>
     </cfRule>
@@ -5778,7 +5781,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5813,14 +5816,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -5868,10 +5871,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D26" si="0">F6-E6</f>
@@ -5884,15 +5887,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -5905,15 +5908,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -5926,15 +5929,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -5947,15 +5950,15 @@
         <v>43388</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -5968,15 +5971,15 @@
         <v>43388</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -5989,15 +5992,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -6010,15 +6013,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -6031,15 +6034,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -6052,15 +6055,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -6073,15 +6076,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -6094,15 +6097,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -6115,15 +6118,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -6136,15 +6139,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -6157,15 +6160,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -6178,15 +6181,15 @@
         <v>43395</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -6199,15 +6202,15 @@
         <v>43402</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -6220,15 +6223,15 @@
         <v>43401</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -6241,15 +6244,15 @@
         <v>43423</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -6262,15 +6265,15 @@
         <v>43423</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -6283,15 +6286,15 @@
         <v>43423</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -6304,7 +6307,7 @@
         <v>43434</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7377,14 +7380,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -7432,10 +7435,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D21" si="0">F6-E6</f>
@@ -7448,15 +7451,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -7469,15 +7472,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -7490,15 +7493,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -7511,15 +7514,15 @@
         <v>43395</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -7532,15 +7535,15 @@
         <v>43388</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -7553,15 +7556,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -7574,15 +7577,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -7595,15 +7598,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -7616,15 +7619,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -7637,15 +7640,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3">
@@ -7655,15 +7658,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -7676,15 +7679,15 @@
         <v>43411</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -7697,15 +7700,15 @@
         <v>43423</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -7718,15 +7721,15 @@
         <v>43423</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -7739,12 +7742,12 @@
         <v>43430</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -7760,7 +7763,7 @@
         <v>43432</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8851,14 +8854,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -8906,10 +8909,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <f>F6-E6</f>
@@ -8922,15 +8925,15 @@
         <v>43367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:D21" si="0">F7-E7</f>
@@ -8943,15 +8946,15 @@
         <v>43367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -8964,15 +8967,15 @@
         <v>43357</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -8985,15 +8988,15 @@
         <v>43395</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -9006,15 +9009,15 @@
         <v>43395</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -9027,15 +9030,15 @@
         <v>43388</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -9048,15 +9051,15 @@
         <v>43388</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -9069,15 +9072,15 @@
         <v>43388</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -9090,15 +9093,15 @@
         <v>43388</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -9111,15 +9114,15 @@
         <v>43388</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -9132,15 +9135,15 @@
         <v>43388</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -9153,15 +9156,15 @@
         <v>43388</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -9174,15 +9177,15 @@
         <v>43388</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -9195,15 +9198,15 @@
         <v>43388</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -9216,15 +9219,15 @@
         <v>43405</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -9237,7 +9240,7 @@
         <v>43423</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10079,7 +10082,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
